--- a/Code/Results/Cases/Case_0_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0858948164563671</v>
+        <v>0.08589481645614683</v>
       </c>
       <c r="D2">
-        <v>0.4148565744885104</v>
+        <v>0.4148565744886952</v>
       </c>
       <c r="E2">
         <v>1.872622687120597</v>
       </c>
       <c r="F2">
-        <v>8.19094722465826</v>
+        <v>8.190947224658345</v>
       </c>
       <c r="G2">
-        <v>7.195345014090464</v>
+        <v>7.195345014090549</v>
       </c>
       <c r="H2">
         <v>6.422400661399223</v>
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07096006208918482</v>
+        <v>0.07096006208883665</v>
       </c>
       <c r="D3">
-        <v>0.343833302011717</v>
+        <v>0.3438333020117312</v>
       </c>
       <c r="E3">
         <v>1.542033393830707</v>
       </c>
       <c r="F3">
-        <v>6.840143095330063</v>
+        <v>6.840143095330035</v>
       </c>
       <c r="G3">
         <v>6.005046453243949</v>
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06255858243154222</v>
+        <v>0.06255858243132906</v>
       </c>
       <c r="D4">
-        <v>0.303690915239045</v>
+        <v>0.3036909152388603</v>
       </c>
       <c r="E4">
-        <v>1.356984580238901</v>
+        <v>1.356984580238915</v>
       </c>
       <c r="F4">
-        <v>6.069889481626461</v>
+        <v>6.069889481626547</v>
       </c>
       <c r="G4">
-        <v>5.326754139452731</v>
+        <v>5.326754139452788</v>
       </c>
       <c r="H4">
         <v>4.756984354745981</v>
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05927982110944896</v>
+        <v>0.05927982110908658</v>
       </c>
       <c r="D5">
-        <v>0.2879897585965381</v>
+        <v>0.2879897585967655</v>
       </c>
       <c r="E5">
-        <v>1.284930965074224</v>
+        <v>1.284930965074253</v>
       </c>
       <c r="F5">
-        <v>5.767351406896722</v>
+        <v>5.767351406896779</v>
       </c>
       <c r="G5">
-        <v>5.060417376982485</v>
+        <v>5.060417376982542</v>
       </c>
       <c r="H5">
-        <v>4.519514821722908</v>
+        <v>4.519514821722964</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05874299851357989</v>
+        <v>0.05874299851360121</v>
       </c>
       <c r="D6">
-        <v>0.2854172104217412</v>
+        <v>0.2854172104218122</v>
       </c>
       <c r="E6">
-        <v>1.273142161152634</v>
+        <v>1.273142161152549</v>
       </c>
       <c r="F6">
-        <v>5.717716280161397</v>
+        <v>5.717716280161284</v>
       </c>
       <c r="G6">
-        <v>5.016725733340536</v>
+        <v>5.016725733340508</v>
       </c>
       <c r="H6">
-        <v>4.480556716084038</v>
+        <v>4.480556716083953</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06251383027196766</v>
+        <v>0.06251383027164081</v>
       </c>
       <c r="D7">
-        <v>0.3034767394755988</v>
+        <v>0.3034767394754709</v>
       </c>
       <c r="E7">
-        <v>1.356000514779183</v>
+        <v>1.356000514779197</v>
       </c>
       <c r="F7">
-        <v>6.065767324162408</v>
+        <v>6.06576732416238</v>
       </c>
       <c r="G7">
-        <v>5.323124934401392</v>
+        <v>5.323124934401335</v>
       </c>
       <c r="H7">
-        <v>4.753748650132309</v>
+        <v>4.753748650132252</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.08055119622184748</v>
+        <v>0.08055119622203932</v>
       </c>
       <c r="D8">
-        <v>0.3894953809445383</v>
+        <v>0.389495380944382</v>
       </c>
       <c r="E8">
-        <v>1.754082074414441</v>
+        <v>1.754082074414484</v>
       </c>
       <c r="F8">
-        <v>7.710415343240697</v>
+        <v>7.710415343240641</v>
       </c>
       <c r="G8">
-        <v>6.771793677600698</v>
+        <v>6.771793677600613</v>
       </c>
       <c r="H8">
         <v>6.0450071923959</v>
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.12563430207517</v>
+        <v>0.1256343020747295</v>
       </c>
       <c r="D9">
-        <v>0.6015265126286522</v>
+        <v>0.6015265126288512</v>
       </c>
       <c r="E9">
         <v>2.764972617876992</v>
       </c>
       <c r="F9">
-        <v>11.6600791521557</v>
+        <v>11.66007915215587</v>
       </c>
       <c r="G9">
-        <v>10.25748987274002</v>
+        <v>10.25748987274017</v>
       </c>
       <c r="H9">
-        <v>9.14871586803352</v>
+        <v>9.148715868033605</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1762253297027314</v>
+        <v>0.1762253297027172</v>
       </c>
       <c r="D10">
-        <v>0.8334243402356663</v>
+        <v>0.8334243402358652</v>
       </c>
       <c r="E10">
         <v>3.939143626699064</v>
@@ -731,10 +731,10 @@
         <v>15.77802772474195</v>
       </c>
       <c r="G10">
-        <v>13.90483243255576</v>
+        <v>13.90483243255579</v>
       </c>
       <c r="H10">
-        <v>12.38990560881135</v>
+        <v>12.38990560881138</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2141913387961125</v>
+        <v>0.2141913387961552</v>
       </c>
       <c r="D11">
         <v>1.002277756052308</v>
       </c>
       <c r="E11">
-        <v>4.863865587397498</v>
+        <v>4.863865587397484</v>
       </c>
       <c r="F11">
-        <v>18.61513015962197</v>
+        <v>18.6151301596218</v>
       </c>
       <c r="G11">
-        <v>16.42856671999121</v>
+        <v>16.42856671999101</v>
       </c>
       <c r="H11">
-        <v>14.62715148340632</v>
+        <v>14.6271514834061</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2370671879536559</v>
+        <v>0.2370671879536701</v>
       </c>
       <c r="D12">
-        <v>1.101449503388181</v>
+        <v>1.10144950338821</v>
       </c>
       <c r="E12">
-        <v>5.44785941528832</v>
+        <v>5.447859415288292</v>
       </c>
       <c r="F12">
-        <v>20.20609797659102</v>
+        <v>20.20609797659085</v>
       </c>
       <c r="G12">
-        <v>17.84910145902313</v>
+        <v>17.84910145902299</v>
       </c>
       <c r="H12">
-        <v>15.88371183205982</v>
+        <v>15.88371183205962</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2312632367341081</v>
+        <v>0.2312632367346907</v>
       </c>
       <c r="D13">
-        <v>1.076488899326165</v>
+        <v>1.076488899326364</v>
       </c>
       <c r="E13">
-        <v>5.297354561214149</v>
+        <v>5.29735456121405</v>
       </c>
       <c r="F13">
-        <v>19.81142215800969</v>
+        <v>19.81142215800952</v>
       </c>
       <c r="G13">
-        <v>17.49628428383107</v>
+        <v>17.49628428383079</v>
       </c>
       <c r="H13">
-        <v>15.5718393564448</v>
+        <v>15.5718393564446</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2157682039373867</v>
+        <v>0.2157682039377278</v>
       </c>
       <c r="D14">
-        <v>1.009180018681747</v>
+        <v>1.009180018681576</v>
       </c>
       <c r="E14">
-        <v>4.903375385932264</v>
+        <v>4.90337538593235</v>
       </c>
       <c r="F14">
         <v>18.72778602078375</v>
       </c>
       <c r="G14">
-        <v>16.52901309809712</v>
+        <v>16.5290130980971</v>
       </c>
       <c r="H14">
-        <v>14.71607611854125</v>
+        <v>14.71607611854131</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2079159660624015</v>
+        <v>0.2079159660620604</v>
       </c>
       <c r="D15">
-        <v>0.9747168702609486</v>
+        <v>0.9747168702611475</v>
       </c>
       <c r="E15">
-        <v>4.707606553060842</v>
+        <v>4.707606553060756</v>
       </c>
       <c r="F15">
-        <v>18.16256048595733</v>
+        <v>18.16256048595716</v>
       </c>
       <c r="G15">
-        <v>16.02524344989706</v>
+        <v>16.02524344989689</v>
       </c>
       <c r="H15">
-        <v>14.26999020695703</v>
+        <v>14.26999020695698</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.174271688610574</v>
+        <v>0.1742716886098634</v>
       </c>
       <c r="D16">
-        <v>0.8246061359753298</v>
+        <v>0.8246061359753583</v>
       </c>
       <c r="E16">
-        <v>3.892743945912741</v>
+        <v>3.89274394591267</v>
       </c>
       <c r="F16">
-        <v>15.62585008140297</v>
+        <v>15.62585008140292</v>
       </c>
       <c r="G16">
-        <v>13.76974746476887</v>
+        <v>13.76974746476884</v>
       </c>
       <c r="H16">
-        <v>12.27001164274344</v>
+        <v>12.27001164274338</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1587328933492813</v>
+        <v>0.1587328933484571</v>
       </c>
       <c r="D17">
-        <v>0.7540563287153361</v>
+        <v>0.7540563287154782</v>
       </c>
       <c r="E17">
-        <v>3.527061832457306</v>
+        <v>3.527061832457349</v>
       </c>
       <c r="F17">
-        <v>14.39518128645005</v>
+        <v>14.39518128645017</v>
       </c>
       <c r="G17">
-        <v>12.67822198837541</v>
+        <v>12.67822198837553</v>
       </c>
       <c r="H17">
-        <v>11.30077714888171</v>
+        <v>11.30077714888176</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1508171392266604</v>
+        <v>0.1508171392258646</v>
       </c>
       <c r="D18">
-        <v>0.7178466772776062</v>
+        <v>0.7178466772776346</v>
       </c>
       <c r="E18">
-        <v>3.342884194242529</v>
+        <v>3.342884194242544</v>
       </c>
       <c r="F18">
-        <v>13.75477955541132</v>
+        <v>13.75477955541126</v>
       </c>
       <c r="G18">
-        <v>12.11082898816275</v>
+        <v>12.11082898816281</v>
       </c>
       <c r="H18">
-        <v>10.79665312595736</v>
+        <v>10.79665312595745</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1482722270267232</v>
+        <v>0.1482722270274763</v>
       </c>
       <c r="D19">
-        <v>0.7061681011081191</v>
+        <v>0.7061681011082896</v>
       </c>
       <c r="E19">
-        <v>3.28394717903106</v>
+        <v>3.283947179031117</v>
       </c>
       <c r="F19">
-        <v>13.54701283116009</v>
+        <v>13.54701283116037</v>
       </c>
       <c r="G19">
-        <v>11.92683166043997</v>
+        <v>11.9268316604402</v>
       </c>
       <c r="H19">
-        <v>10.63313188110789</v>
+        <v>10.63313188110808</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1602703488333077</v>
+        <v>0.1602703488327251</v>
       </c>
       <c r="D20">
         <v>0.7610685431618265</v>
       </c>
       <c r="E20">
-        <v>3.562991175912856</v>
+        <v>3.562991175912828</v>
       </c>
       <c r="F20">
-        <v>14.5185260140164</v>
+        <v>14.51852601401657</v>
       </c>
       <c r="G20">
-        <v>12.78755058835264</v>
+        <v>12.7875505883527</v>
       </c>
       <c r="H20">
-        <v>11.39789200448095</v>
+        <v>11.39789200448104</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2199076232152635</v>
+        <v>0.2199076232152493</v>
       </c>
       <c r="D21">
-        <v>1.027253863970003</v>
+        <v>1.027253863969975</v>
       </c>
       <c r="E21">
-        <v>5.007582992307135</v>
+        <v>5.007582992307093</v>
       </c>
       <c r="F21">
-        <v>19.02145486097521</v>
+        <v>19.02145486097533</v>
       </c>
       <c r="G21">
-        <v>16.7909501823988</v>
+        <v>16.79095018239886</v>
       </c>
       <c r="H21">
-        <v>14.94791835854252</v>
+        <v>14.94791835854264</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2199076232152635</v>
+        <v>0.2199076232152493</v>
       </c>
       <c r="D22">
-        <v>1.027253863970003</v>
+        <v>1.027253863969975</v>
       </c>
       <c r="E22">
-        <v>5.007582992307135</v>
+        <v>5.007582992307093</v>
       </c>
       <c r="F22">
-        <v>19.02145486097521</v>
+        <v>19.02145486097533</v>
       </c>
       <c r="G22">
-        <v>16.7909501823988</v>
+        <v>16.79095018239886</v>
       </c>
       <c r="H22">
-        <v>14.94791835854252</v>
+        <v>14.94791835854264</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1213,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3212214646290619</v>
+        <v>0.3212214646293035</v>
       </c>
       <c r="D23">
-        <v>1.444183739469395</v>
+        <v>1.444183739469594</v>
       </c>
       <c r="E23">
         <v>7.921341562802724</v>
@@ -1225,10 +1225,10 @@
         <v>25.13291674832419</v>
       </c>
       <c r="G23">
-        <v>22.28943660936341</v>
+        <v>22.28943660936338</v>
       </c>
       <c r="H23">
-        <v>19.78937544168005</v>
+        <v>19.78937544168002</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4265207845461561</v>
+        <v>0.4265207845465824</v>
       </c>
       <c r="D24">
-        <v>1.753753354168907</v>
+        <v>1.753753354169021</v>
       </c>
       <c r="E24">
-        <v>14.30812903664894</v>
+        <v>14.30812903664884</v>
       </c>
       <c r="F24">
-        <v>27.1630768213181</v>
+        <v>27.16307682131816</v>
       </c>
       <c r="G24">
-        <v>24.30737053808309</v>
+        <v>24.30737053808318</v>
       </c>
       <c r="H24">
-        <v>21.45454842661158</v>
+        <v>21.45454842661167</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4372010370468189</v>
+        <v>0.437201037046492</v>
       </c>
       <c r="D25">
-        <v>1.653159360494925</v>
+        <v>1.653159360495096</v>
       </c>
       <c r="E25">
-        <v>20.00211698571465</v>
+        <v>20.00211698571478</v>
       </c>
       <c r="F25">
-        <v>23.23440853495663</v>
+        <v>23.23440853495649</v>
       </c>
       <c r="G25">
-        <v>20.95361093832841</v>
+        <v>20.9536109383283</v>
       </c>
       <c r="H25">
         <v>18.39065540553128</v>

--- a/Code/Results/Cases/Case_0_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.08589481645614683</v>
+        <v>0.0858948164563671</v>
       </c>
       <c r="D2">
-        <v>0.4148565744886952</v>
+        <v>0.4148565744885104</v>
       </c>
       <c r="E2">
         <v>1.872622687120597</v>
       </c>
       <c r="F2">
-        <v>8.190947224658345</v>
+        <v>8.19094722465826</v>
       </c>
       <c r="G2">
-        <v>7.195345014090549</v>
+        <v>7.195345014090464</v>
       </c>
       <c r="H2">
         <v>6.422400661399223</v>
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07096006208883665</v>
+        <v>0.07096006208918482</v>
       </c>
       <c r="D3">
-        <v>0.3438333020117312</v>
+        <v>0.343833302011717</v>
       </c>
       <c r="E3">
         <v>1.542033393830707</v>
       </c>
       <c r="F3">
-        <v>6.840143095330035</v>
+        <v>6.840143095330063</v>
       </c>
       <c r="G3">
         <v>6.005046453243949</v>
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06255858243132906</v>
+        <v>0.06255858243154222</v>
       </c>
       <c r="D4">
-        <v>0.3036909152388603</v>
+        <v>0.303690915239045</v>
       </c>
       <c r="E4">
-        <v>1.356984580238915</v>
+        <v>1.356984580238901</v>
       </c>
       <c r="F4">
-        <v>6.069889481626547</v>
+        <v>6.069889481626461</v>
       </c>
       <c r="G4">
-        <v>5.326754139452788</v>
+        <v>5.326754139452731</v>
       </c>
       <c r="H4">
         <v>4.756984354745981</v>
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05927982110908658</v>
+        <v>0.05927982110944896</v>
       </c>
       <c r="D5">
-        <v>0.2879897585967655</v>
+        <v>0.2879897585965381</v>
       </c>
       <c r="E5">
-        <v>1.284930965074253</v>
+        <v>1.284930965074224</v>
       </c>
       <c r="F5">
-        <v>5.767351406896779</v>
+        <v>5.767351406896722</v>
       </c>
       <c r="G5">
-        <v>5.060417376982542</v>
+        <v>5.060417376982485</v>
       </c>
       <c r="H5">
-        <v>4.519514821722964</v>
+        <v>4.519514821722908</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05874299851360121</v>
+        <v>0.05874299851357989</v>
       </c>
       <c r="D6">
-        <v>0.2854172104218122</v>
+        <v>0.2854172104217412</v>
       </c>
       <c r="E6">
-        <v>1.273142161152549</v>
+        <v>1.273142161152634</v>
       </c>
       <c r="F6">
-        <v>5.717716280161284</v>
+        <v>5.717716280161397</v>
       </c>
       <c r="G6">
-        <v>5.016725733340508</v>
+        <v>5.016725733340536</v>
       </c>
       <c r="H6">
-        <v>4.480556716083953</v>
+        <v>4.480556716084038</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06251383027164081</v>
+        <v>0.06251383027196766</v>
       </c>
       <c r="D7">
-        <v>0.3034767394754709</v>
+        <v>0.3034767394755988</v>
       </c>
       <c r="E7">
-        <v>1.356000514779197</v>
+        <v>1.356000514779183</v>
       </c>
       <c r="F7">
-        <v>6.06576732416238</v>
+        <v>6.065767324162408</v>
       </c>
       <c r="G7">
-        <v>5.323124934401335</v>
+        <v>5.323124934401392</v>
       </c>
       <c r="H7">
-        <v>4.753748650132252</v>
+        <v>4.753748650132309</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.08055119622203932</v>
+        <v>0.08055119622184748</v>
       </c>
       <c r="D8">
-        <v>0.389495380944382</v>
+        <v>0.3894953809445383</v>
       </c>
       <c r="E8">
-        <v>1.754082074414484</v>
+        <v>1.754082074414441</v>
       </c>
       <c r="F8">
-        <v>7.710415343240641</v>
+        <v>7.710415343240697</v>
       </c>
       <c r="G8">
-        <v>6.771793677600613</v>
+        <v>6.771793677600698</v>
       </c>
       <c r="H8">
         <v>6.0450071923959</v>
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1256343020747295</v>
+        <v>0.12563430207517</v>
       </c>
       <c r="D9">
-        <v>0.6015265126288512</v>
+        <v>0.6015265126286522</v>
       </c>
       <c r="E9">
         <v>2.764972617876992</v>
       </c>
       <c r="F9">
-        <v>11.66007915215587</v>
+        <v>11.6600791521557</v>
       </c>
       <c r="G9">
-        <v>10.25748987274017</v>
+        <v>10.25748987274002</v>
       </c>
       <c r="H9">
-        <v>9.148715868033605</v>
+        <v>9.14871586803352</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1762253297027172</v>
+        <v>0.1762253297027314</v>
       </c>
       <c r="D10">
-        <v>0.8334243402358652</v>
+        <v>0.8334243402356663</v>
       </c>
       <c r="E10">
         <v>3.939143626699064</v>
@@ -731,10 +731,10 @@
         <v>15.77802772474195</v>
       </c>
       <c r="G10">
-        <v>13.90483243255579</v>
+        <v>13.90483243255576</v>
       </c>
       <c r="H10">
-        <v>12.38990560881138</v>
+        <v>12.38990560881135</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2141913387961552</v>
+        <v>0.2141913387961125</v>
       </c>
       <c r="D11">
         <v>1.002277756052308</v>
       </c>
       <c r="E11">
-        <v>4.863865587397484</v>
+        <v>4.863865587397498</v>
       </c>
       <c r="F11">
-        <v>18.6151301596218</v>
+        <v>18.61513015962197</v>
       </c>
       <c r="G11">
-        <v>16.42856671999101</v>
+        <v>16.42856671999121</v>
       </c>
       <c r="H11">
-        <v>14.6271514834061</v>
+        <v>14.62715148340632</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2370671879536701</v>
+        <v>0.2370671879536559</v>
       </c>
       <c r="D12">
-        <v>1.10144950338821</v>
+        <v>1.101449503388181</v>
       </c>
       <c r="E12">
-        <v>5.447859415288292</v>
+        <v>5.44785941528832</v>
       </c>
       <c r="F12">
-        <v>20.20609797659085</v>
+        <v>20.20609797659102</v>
       </c>
       <c r="G12">
-        <v>17.84910145902299</v>
+        <v>17.84910145902313</v>
       </c>
       <c r="H12">
-        <v>15.88371183205962</v>
+        <v>15.88371183205982</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2312632367346907</v>
+        <v>0.2312632367341081</v>
       </c>
       <c r="D13">
-        <v>1.076488899326364</v>
+        <v>1.076488899326165</v>
       </c>
       <c r="E13">
-        <v>5.29735456121405</v>
+        <v>5.297354561214149</v>
       </c>
       <c r="F13">
-        <v>19.81142215800952</v>
+        <v>19.81142215800969</v>
       </c>
       <c r="G13">
-        <v>17.49628428383079</v>
+        <v>17.49628428383107</v>
       </c>
       <c r="H13">
-        <v>15.5718393564446</v>
+        <v>15.5718393564448</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2157682039377278</v>
+        <v>0.2157682039373867</v>
       </c>
       <c r="D14">
-        <v>1.009180018681576</v>
+        <v>1.009180018681747</v>
       </c>
       <c r="E14">
-        <v>4.90337538593235</v>
+        <v>4.903375385932264</v>
       </c>
       <c r="F14">
         <v>18.72778602078375</v>
       </c>
       <c r="G14">
-        <v>16.5290130980971</v>
+        <v>16.52901309809712</v>
       </c>
       <c r="H14">
-        <v>14.71607611854131</v>
+        <v>14.71607611854125</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2079159660620604</v>
+        <v>0.2079159660624015</v>
       </c>
       <c r="D15">
-        <v>0.9747168702611475</v>
+        <v>0.9747168702609486</v>
       </c>
       <c r="E15">
-        <v>4.707606553060756</v>
+        <v>4.707606553060842</v>
       </c>
       <c r="F15">
-        <v>18.16256048595716</v>
+        <v>18.16256048595733</v>
       </c>
       <c r="G15">
-        <v>16.02524344989689</v>
+        <v>16.02524344989706</v>
       </c>
       <c r="H15">
-        <v>14.26999020695698</v>
+        <v>14.26999020695703</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1742716886098634</v>
+        <v>0.174271688610574</v>
       </c>
       <c r="D16">
-        <v>0.8246061359753583</v>
+        <v>0.8246061359753298</v>
       </c>
       <c r="E16">
-        <v>3.89274394591267</v>
+        <v>3.892743945912741</v>
       </c>
       <c r="F16">
-        <v>15.62585008140292</v>
+        <v>15.62585008140297</v>
       </c>
       <c r="G16">
-        <v>13.76974746476884</v>
+        <v>13.76974746476887</v>
       </c>
       <c r="H16">
-        <v>12.27001164274338</v>
+        <v>12.27001164274344</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1587328933484571</v>
+        <v>0.1587328933492813</v>
       </c>
       <c r="D17">
-        <v>0.7540563287154782</v>
+        <v>0.7540563287153361</v>
       </c>
       <c r="E17">
-        <v>3.527061832457349</v>
+        <v>3.527061832457306</v>
       </c>
       <c r="F17">
-        <v>14.39518128645017</v>
+        <v>14.39518128645005</v>
       </c>
       <c r="G17">
-        <v>12.67822198837553</v>
+        <v>12.67822198837541</v>
       </c>
       <c r="H17">
-        <v>11.30077714888176</v>
+        <v>11.30077714888171</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1508171392258646</v>
+        <v>0.1508171392266604</v>
       </c>
       <c r="D18">
-        <v>0.7178466772776346</v>
+        <v>0.7178466772776062</v>
       </c>
       <c r="E18">
-        <v>3.342884194242544</v>
+        <v>3.342884194242529</v>
       </c>
       <c r="F18">
-        <v>13.75477955541126</v>
+        <v>13.75477955541132</v>
       </c>
       <c r="G18">
-        <v>12.11082898816281</v>
+        <v>12.11082898816275</v>
       </c>
       <c r="H18">
-        <v>10.79665312595745</v>
+        <v>10.79665312595736</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1482722270274763</v>
+        <v>0.1482722270267232</v>
       </c>
       <c r="D19">
-        <v>0.7061681011082896</v>
+        <v>0.7061681011081191</v>
       </c>
       <c r="E19">
-        <v>3.283947179031117</v>
+        <v>3.28394717903106</v>
       </c>
       <c r="F19">
-        <v>13.54701283116037</v>
+        <v>13.54701283116009</v>
       </c>
       <c r="G19">
-        <v>11.9268316604402</v>
+        <v>11.92683166043997</v>
       </c>
       <c r="H19">
-        <v>10.63313188110808</v>
+        <v>10.63313188110789</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1602703488327251</v>
+        <v>0.1602703488333077</v>
       </c>
       <c r="D20">
         <v>0.7610685431618265</v>
       </c>
       <c r="E20">
-        <v>3.562991175912828</v>
+        <v>3.562991175912856</v>
       </c>
       <c r="F20">
-        <v>14.51852601401657</v>
+        <v>14.5185260140164</v>
       </c>
       <c r="G20">
-        <v>12.7875505883527</v>
+        <v>12.78755058835264</v>
       </c>
       <c r="H20">
-        <v>11.39789200448104</v>
+        <v>11.39789200448095</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2199076232152493</v>
+        <v>0.2199076232152635</v>
       </c>
       <c r="D21">
-        <v>1.027253863969975</v>
+        <v>1.027253863970003</v>
       </c>
       <c r="E21">
-        <v>5.007582992307093</v>
+        <v>5.007582992307135</v>
       </c>
       <c r="F21">
-        <v>19.02145486097533</v>
+        <v>19.02145486097521</v>
       </c>
       <c r="G21">
-        <v>16.79095018239886</v>
+        <v>16.7909501823988</v>
       </c>
       <c r="H21">
-        <v>14.94791835854264</v>
+        <v>14.94791835854252</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2199076232152493</v>
+        <v>0.2199076232152635</v>
       </c>
       <c r="D22">
-        <v>1.027253863969975</v>
+        <v>1.027253863970003</v>
       </c>
       <c r="E22">
-        <v>5.007582992307093</v>
+        <v>5.007582992307135</v>
       </c>
       <c r="F22">
-        <v>19.02145486097533</v>
+        <v>19.02145486097521</v>
       </c>
       <c r="G22">
-        <v>16.79095018239886</v>
+        <v>16.7909501823988</v>
       </c>
       <c r="H22">
-        <v>14.94791835854264</v>
+        <v>14.94791835854252</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1213,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3212214646293035</v>
+        <v>0.3212214646290619</v>
       </c>
       <c r="D23">
-        <v>1.444183739469594</v>
+        <v>1.444183739469395</v>
       </c>
       <c r="E23">
         <v>7.921341562802724</v>
@@ -1225,10 +1225,10 @@
         <v>25.13291674832419</v>
       </c>
       <c r="G23">
-        <v>22.28943660936338</v>
+        <v>22.28943660936341</v>
       </c>
       <c r="H23">
-        <v>19.78937544168002</v>
+        <v>19.78937544168005</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4265207845465824</v>
+        <v>0.4265207845461561</v>
       </c>
       <c r="D24">
-        <v>1.753753354169021</v>
+        <v>1.753753354168907</v>
       </c>
       <c r="E24">
-        <v>14.30812903664884</v>
+        <v>14.30812903664894</v>
       </c>
       <c r="F24">
-        <v>27.16307682131816</v>
+        <v>27.1630768213181</v>
       </c>
       <c r="G24">
-        <v>24.30737053808318</v>
+        <v>24.30737053808309</v>
       </c>
       <c r="H24">
-        <v>21.45454842661167</v>
+        <v>21.45454842661158</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.437201037046492</v>
+        <v>0.4372010370468189</v>
       </c>
       <c r="D25">
-        <v>1.653159360495096</v>
+        <v>1.653159360494925</v>
       </c>
       <c r="E25">
-        <v>20.00211698571478</v>
+        <v>20.00211698571465</v>
       </c>
       <c r="F25">
-        <v>23.23440853495649</v>
+        <v>23.23440853495663</v>
       </c>
       <c r="G25">
-        <v>20.9536109383283</v>
+        <v>20.95361093832841</v>
       </c>
       <c r="H25">
         <v>18.39065540553128</v>

--- a/Code/Results/Cases/Case_0_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,25 +418,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0858948164563671</v>
+        <v>0.08552392119553787</v>
       </c>
       <c r="D2">
-        <v>0.4148565744885104</v>
+        <v>0.4135227233217194</v>
       </c>
       <c r="E2">
-        <v>1.872622687120597</v>
+        <v>1.871634302467527</v>
       </c>
       <c r="F2">
-        <v>8.19094722465826</v>
+        <v>8.174914218036037</v>
       </c>
       <c r="G2">
-        <v>7.195345014090464</v>
+        <v>2.430470347813213</v>
       </c>
       <c r="H2">
-        <v>6.422400661399223</v>
+        <v>4.748246096489936</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6.409642997949788</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,25 +459,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07096006208918482</v>
+        <v>0.07066029242810146</v>
       </c>
       <c r="D3">
-        <v>0.343833302011717</v>
+        <v>0.3427618321585157</v>
       </c>
       <c r="E3">
-        <v>1.542033393830707</v>
+        <v>1.541396108168314</v>
       </c>
       <c r="F3">
-        <v>6.840143095330063</v>
+        <v>6.827417659708146</v>
       </c>
       <c r="G3">
-        <v>6.005046453243949</v>
+        <v>2.026992106241295</v>
       </c>
       <c r="H3">
-        <v>5.361659566592408</v>
+        <v>3.965517229150009</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>5.351530312343584</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,25 +500,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06255858243154222</v>
+        <v>0.06229723488969796</v>
       </c>
       <c r="D4">
-        <v>0.303690915239045</v>
+        <v>0.3027599415791826</v>
       </c>
       <c r="E4">
-        <v>1.356984580238901</v>
+        <v>1.356503045209109</v>
       </c>
       <c r="F4">
-        <v>6.069889481626461</v>
+        <v>6.058908308953619</v>
       </c>
       <c r="G4">
-        <v>5.326754139452731</v>
+        <v>1.796833913616751</v>
       </c>
       <c r="H4">
-        <v>4.756984354745981</v>
+        <v>3.519592261068908</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.748241748374625</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,25 +541,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05927982110944896</v>
+        <v>0.05903319358942838</v>
       </c>
       <c r="D5">
-        <v>0.2879897585965381</v>
+        <v>0.2871123742998236</v>
       </c>
       <c r="E5">
-        <v>1.284930965074224</v>
+        <v>1.28450303479697</v>
       </c>
       <c r="F5">
-        <v>5.767351406896722</v>
+        <v>5.757030252293703</v>
       </c>
       <c r="G5">
-        <v>5.060417376982485</v>
+        <v>1.706407067974169</v>
       </c>
       <c r="H5">
-        <v>4.519514821722908</v>
+        <v>3.344528338568352</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.511297026892947</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,25 +582,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05874299851357989</v>
+        <v>0.05849876713529056</v>
       </c>
       <c r="D6">
-        <v>0.2854172104217412</v>
+        <v>0.2845485369123537</v>
       </c>
       <c r="E6">
-        <v>1.273142161152634</v>
+        <v>1.272722644251459</v>
       </c>
       <c r="F6">
-        <v>5.717716280161397</v>
+        <v>5.707502123764272</v>
       </c>
       <c r="G6">
-        <v>5.016725733340536</v>
+        <v>1.691569755070105</v>
       </c>
       <c r="H6">
-        <v>4.480556716084038</v>
+        <v>3.315811697186916</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.472424006807699</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,25 +623,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06251383027196766</v>
+        <v>0.06225268464526579</v>
       </c>
       <c r="D7">
-        <v>0.3034767394755988</v>
+        <v>0.3025465017967548</v>
       </c>
       <c r="E7">
-        <v>1.356000514779183</v>
+        <v>1.355519737500799</v>
       </c>
       <c r="F7">
-        <v>6.065767324162408</v>
+        <v>6.054795236250726</v>
       </c>
       <c r="G7">
-        <v>5.323124934401392</v>
+        <v>1.795601936007387</v>
       </c>
       <c r="H7">
-        <v>4.753748650132309</v>
+        <v>3.517206639693853</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.745013267044129</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,25 +664,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.08055119622184748</v>
+        <v>0.08020620117987676</v>
       </c>
       <c r="D8">
-        <v>0.3894953809445383</v>
+        <v>0.3882574154366836</v>
       </c>
       <c r="E8">
-        <v>1.754082074414441</v>
+        <v>1.753231216054871</v>
       </c>
       <c r="F8">
-        <v>7.710415343240697</v>
+        <v>7.695598283181653</v>
       </c>
       <c r="G8">
-        <v>6.771793677600698</v>
+        <v>2.286954042850567</v>
       </c>
       <c r="H8">
-        <v>6.0450071923959</v>
+        <v>4.469701074760508</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>6.033215655622683</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,25 +705,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.12563430207517</v>
+        <v>0.1250495651616035</v>
       </c>
       <c r="D9">
-        <v>0.6015265126286522</v>
+        <v>0.5993871033684002</v>
       </c>
       <c r="E9">
-        <v>2.764972617876992</v>
+        <v>2.762395830775816</v>
       </c>
       <c r="F9">
-        <v>11.6600791521557</v>
+        <v>11.63355206109716</v>
       </c>
       <c r="G9">
-        <v>10.25748987274002</v>
+        <v>3.466433560994233</v>
       </c>
       <c r="H9">
-        <v>9.14871586803352</v>
+        <v>6.762148675542988</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>9.127625230406522</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,25 +746,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1762253297027314</v>
+        <v>0.1752671812982953</v>
       </c>
       <c r="D10">
-        <v>0.8334243402356663</v>
+        <v>0.8298316436252833</v>
       </c>
       <c r="E10">
-        <v>3.939143626699064</v>
+        <v>3.931778026932449</v>
       </c>
       <c r="F10">
-        <v>15.77802772474195</v>
+        <v>15.73173279762347</v>
       </c>
       <c r="G10">
-        <v>13.90483243255576</v>
+        <v>4.696453779879079</v>
       </c>
       <c r="H10">
-        <v>12.38990560881135</v>
+        <v>9.158347346980946</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>12.35313029578558</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,25 +787,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2141913387961125</v>
+        <v>0.2127530315990924</v>
       </c>
       <c r="D11">
-        <v>1.002277756052308</v>
+        <v>0.9967718737524365</v>
       </c>
       <c r="E11">
-        <v>4.863865587397498</v>
+        <v>4.847224704786584</v>
       </c>
       <c r="F11">
-        <v>18.61513015962197</v>
+        <v>18.54215413935702</v>
       </c>
       <c r="G11">
-        <v>16.42856671999121</v>
+        <v>5.542920599432279</v>
       </c>
       <c r="H11">
-        <v>14.62715148340632</v>
+        <v>10.80930131959173</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>14.56921129957206</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,25 +828,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2370671879536559</v>
+        <v>0.2350910600209062</v>
       </c>
       <c r="D12">
-        <v>1.101449503388181</v>
+        <v>1.093782860189663</v>
       </c>
       <c r="E12">
-        <v>5.44785941528832</v>
+        <v>5.418344453258783</v>
       </c>
       <c r="F12">
-        <v>20.20609797659102</v>
+        <v>20.10279501983223</v>
       </c>
       <c r="G12">
-        <v>17.84910145902313</v>
+        <v>6.014556072528194</v>
       </c>
       <c r="H12">
-        <v>15.88371183205982</v>
+        <v>11.72958650239937</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>15.80171306403767</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,25 +869,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2312632367341081</v>
+        <v>0.2294568982377285</v>
       </c>
       <c r="D13">
-        <v>1.076488899326165</v>
+        <v>1.069505146886229</v>
       </c>
       <c r="E13">
-        <v>5.297354561214149</v>
+        <v>5.272094506313437</v>
       </c>
       <c r="F13">
-        <v>19.81142215800969</v>
+        <v>19.71770840549891</v>
       </c>
       <c r="G13">
-        <v>17.49628428383107</v>
+        <v>5.89805086323355</v>
       </c>
       <c r="H13">
-        <v>15.5718393564448</v>
+        <v>11.50223698818257</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>15.49744804253177</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,25 +910,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2157682039373867</v>
+        <v>0.2143018778513834</v>
       </c>
       <c r="D14">
-        <v>1.009180018681747</v>
+        <v>1.0035618128029</v>
       </c>
       <c r="E14">
-        <v>4.903375385932264</v>
+        <v>4.886114542174084</v>
       </c>
       <c r="F14">
-        <v>18.72778602078375</v>
+        <v>18.65323548092084</v>
       </c>
       <c r="G14">
-        <v>16.52901309809712</v>
+        <v>5.576446646812514</v>
       </c>
       <c r="H14">
-        <v>14.71607611854125</v>
+        <v>10.87471238489744</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>14.65688691815126</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,25 +951,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2079159660624015</v>
+        <v>0.2065804041116337</v>
       </c>
       <c r="D15">
-        <v>0.9747168702609486</v>
+        <v>0.9696224565072669</v>
       </c>
       <c r="E15">
-        <v>4.707606553060842</v>
+        <v>4.693176405132306</v>
       </c>
       <c r="F15">
-        <v>18.16256048595733</v>
+        <v>18.09534799421965</v>
       </c>
       <c r="G15">
-        <v>16.02524344989706</v>
+        <v>5.408127813488392</v>
       </c>
       <c r="H15">
-        <v>14.26999020695703</v>
+        <v>10.54632730714798</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>14.21662199713214</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,25 +992,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.174271688610574</v>
+        <v>0.1733316872158781</v>
       </c>
       <c r="D16">
-        <v>0.8246061359753298</v>
+        <v>0.821085043803663</v>
       </c>
       <c r="E16">
-        <v>3.892743945912741</v>
+        <v>3.885667346789319</v>
       </c>
       <c r="F16">
-        <v>15.62585008140297</v>
+        <v>15.58054446141182</v>
       </c>
       <c r="G16">
-        <v>13.76974746476887</v>
+        <v>4.650999687458238</v>
       </c>
       <c r="H16">
-        <v>12.27001164274344</v>
+        <v>9.069729770101134</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>12.23402113215514</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,25 +1033,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1587328933492813</v>
+        <v>0.1579238828963838</v>
       </c>
       <c r="D17">
-        <v>0.7540563287153361</v>
+        <v>0.7510496045470063</v>
       </c>
       <c r="E17">
-        <v>3.527061832457306</v>
+        <v>3.521908357147126</v>
       </c>
       <c r="F17">
-        <v>14.39518128645005</v>
+        <v>14.35694546536257</v>
       </c>
       <c r="G17">
-        <v>12.67822198837541</v>
+        <v>4.283378398818115</v>
       </c>
       <c r="H17">
-        <v>11.30077714888171</v>
+        <v>8.353182588026328</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>11.27039530521301</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,25 +1074,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1508171392266604</v>
+        <v>0.1500673982570362</v>
       </c>
       <c r="D18">
-        <v>0.7178466772776062</v>
+        <v>0.7150710051397766</v>
       </c>
       <c r="E18">
-        <v>3.342884194242529</v>
+        <v>3.338502091808792</v>
       </c>
       <c r="F18">
-        <v>13.75477955541132</v>
+        <v>13.71969354234716</v>
       </c>
       <c r="G18">
-        <v>12.11082898816275</v>
+        <v>4.092078337550646</v>
       </c>
       <c r="H18">
-        <v>10.79665312595736</v>
+        <v>7.980442233114871</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>10.76877036551645</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,25 +1115,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1482722270267232</v>
+        <v>0.1475406677164415</v>
       </c>
       <c r="D19">
-        <v>0.7061681011081191</v>
+        <v>0.7034630647856659</v>
       </c>
       <c r="E19">
-        <v>3.28394717903106</v>
+        <v>3.279788881531061</v>
       </c>
       <c r="F19">
-        <v>13.54701283116009</v>
+        <v>13.51288587350021</v>
       </c>
       <c r="G19">
-        <v>11.92683166043997</v>
+        <v>4.030016340099849</v>
       </c>
       <c r="H19">
-        <v>10.63313188110789</v>
+        <v>7.859538131293391</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>10.6060100865524</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,25 +1156,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1602703488333077</v>
+        <v>0.1594493055455359</v>
       </c>
       <c r="D20">
-        <v>0.7610685431618265</v>
+        <v>0.758014771945966</v>
       </c>
       <c r="E20">
-        <v>3.562991175912856</v>
+        <v>3.557673396310975</v>
       </c>
       <c r="F20">
-        <v>14.5185260140164</v>
+        <v>14.47964662946873</v>
       </c>
       <c r="G20">
-        <v>12.78755058835264</v>
+        <v>4.320224383162014</v>
       </c>
       <c r="H20">
-        <v>11.39789200448095</v>
+        <v>8.424986319047292</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>11.36699957566131</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,25 +1197,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2199076232152635</v>
+        <v>0.2183628511518094</v>
       </c>
       <c r="D21">
-        <v>1.027253863970003</v>
+        <v>1.0213209680266</v>
       </c>
       <c r="E21">
-        <v>5.007582992307135</v>
+        <v>4.988550918258852</v>
       </c>
       <c r="F21">
-        <v>19.02145486097521</v>
+        <v>18.94249107967215</v>
       </c>
       <c r="G21">
-        <v>16.7909501823988</v>
+        <v>5.663777645896602</v>
       </c>
       <c r="H21">
-        <v>14.94791835854252</v>
+        <v>11.04510558225954</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>14.88522823841936</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,25 +1238,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2199076232152635</v>
+        <v>0.2183628511518094</v>
       </c>
       <c r="D22">
-        <v>1.027253863970003</v>
+        <v>1.0213209680266</v>
       </c>
       <c r="E22">
-        <v>5.007582992307135</v>
+        <v>4.988550918258852</v>
       </c>
       <c r="F22">
-        <v>19.02145486097521</v>
+        <v>18.94249107967215</v>
       </c>
       <c r="G22">
-        <v>16.7909501823988</v>
+        <v>5.663777645896602</v>
       </c>
       <c r="H22">
-        <v>14.94791835854252</v>
+        <v>11.04510558225954</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>14.88522823841936</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,25 +1279,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3212214646290619</v>
+        <v>0.2183628511518094</v>
       </c>
       <c r="D23">
-        <v>1.444183739469395</v>
+        <v>1.0213209680266</v>
       </c>
       <c r="E23">
-        <v>7.921341562802724</v>
+        <v>4.988550918258852</v>
       </c>
       <c r="F23">
-        <v>25.13291674832419</v>
+        <v>18.94249107967215</v>
       </c>
       <c r="G23">
-        <v>22.28943660936341</v>
+        <v>5.663777645896602</v>
       </c>
       <c r="H23">
-        <v>19.78937544168005</v>
+        <v>11.04510558225954</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>14.88522823841936</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,25 +1320,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4265207845461561</v>
+        <v>0.2183628511518094</v>
       </c>
       <c r="D24">
-        <v>1.753753354168907</v>
+        <v>1.0213209680266</v>
       </c>
       <c r="E24">
-        <v>14.30812903664894</v>
+        <v>4.988550918258852</v>
       </c>
       <c r="F24">
-        <v>27.1630768213181</v>
+        <v>18.94249107967215</v>
       </c>
       <c r="G24">
-        <v>24.30737053808309</v>
+        <v>5.663777645896602</v>
       </c>
       <c r="H24">
-        <v>21.45454842661158</v>
+        <v>11.04510558225954</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.88522823841936</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,25 +1361,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4372010370468189</v>
+        <v>0.2183628511518094</v>
       </c>
       <c r="D25">
-        <v>1.653159360494925</v>
+        <v>1.0213209680266</v>
       </c>
       <c r="E25">
-        <v>20.00211698571465</v>
+        <v>4.988550918258852</v>
       </c>
       <c r="F25">
-        <v>23.23440853495663</v>
+        <v>18.94249107967215</v>
       </c>
       <c r="G25">
-        <v>20.95361093832841</v>
+        <v>5.663777645896602</v>
       </c>
       <c r="H25">
-        <v>18.39065540553128</v>
+        <v>11.04510558225954</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>14.88522823841936</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.08552392119553787</v>
+        <v>0.1924219156306464</v>
       </c>
       <c r="D2">
-        <v>0.4135227233217194</v>
+        <v>0.2153071761648135</v>
       </c>
       <c r="E2">
-        <v>1.871634302467527</v>
+        <v>0.07572889055964183</v>
       </c>
       <c r="F2">
-        <v>8.174914218036037</v>
+        <v>9.393002243096817</v>
       </c>
       <c r="G2">
-        <v>2.430470347813213</v>
+        <v>0.0005991385405196662</v>
       </c>
       <c r="H2">
-        <v>4.748246096489936</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.409642997949788</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3702898235330707</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>24.72812375909979</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,8 +456,14 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07066029242810146</v>
+        <v>0.1521720551695012</v>
       </c>
       <c r="D3">
-        <v>0.3427618321585157</v>
+        <v>0.138987800901532</v>
       </c>
       <c r="E3">
-        <v>1.541396108168314</v>
+        <v>0.06536960663140334</v>
       </c>
       <c r="F3">
-        <v>6.827417659708146</v>
+        <v>7.16537722881526</v>
       </c>
       <c r="G3">
-        <v>2.026992106241295</v>
+        <v>0.0006549082855581533</v>
       </c>
       <c r="H3">
-        <v>3.965517229150009</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.351530312343584</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2980439405052095</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.23233261822304</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,8 +503,14 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06229723488969796</v>
+        <v>0.1317244278500738</v>
       </c>
       <c r="D4">
-        <v>0.3027599415791826</v>
+        <v>0.1058965585186655</v>
       </c>
       <c r="E4">
-        <v>1.356503045209109</v>
+        <v>0.05972654092230556</v>
       </c>
       <c r="F4">
-        <v>6.058908308953619</v>
+        <v>6.152366740522922</v>
       </c>
       <c r="G4">
-        <v>1.796833913616751</v>
+        <v>0.0006852899143781068</v>
       </c>
       <c r="H4">
-        <v>3.519592261068908</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4.748241748374625</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2628832338502605</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.84569816813269</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,8 +550,14 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05903319358942838</v>
+        <v>0.1240444955148376</v>
       </c>
       <c r="D5">
-        <v>0.2871123742998236</v>
+        <v>0.09448662881753478</v>
       </c>
       <c r="E5">
-        <v>1.28450303479697</v>
+        <v>0.05753894209802013</v>
       </c>
       <c r="F5">
-        <v>5.757030252293703</v>
+        <v>5.794274785694711</v>
       </c>
       <c r="G5">
-        <v>1.706407067974169</v>
+        <v>0.0006971323357598138</v>
       </c>
       <c r="H5">
-        <v>3.344528338568352</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>4.511297026892947</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2499815343420266</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.93081830834257</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,8 +597,14 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05849876713529056</v>
+        <v>0.1228010282812022</v>
       </c>
       <c r="D6">
-        <v>0.2845485369123537</v>
+        <v>0.09269252119636917</v>
       </c>
       <c r="E6">
-        <v>1.272722644251459</v>
+        <v>0.05718118367351721</v>
       </c>
       <c r="F6">
-        <v>5.707502123764272</v>
+        <v>5.737496497137016</v>
       </c>
       <c r="G6">
-        <v>1.691569755070105</v>
+        <v>0.0006990741254375657</v>
       </c>
       <c r="H6">
-        <v>3.315811697186916</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4.472424006807699</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2479092886959933</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.78172016085364</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,8 +644,14 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06225268464526579</v>
+        <v>0.1316185773506788</v>
       </c>
       <c r="D7">
-        <v>0.3025465017967548</v>
+        <v>0.1057354712571126</v>
       </c>
       <c r="E7">
-        <v>1.355519737500799</v>
+        <v>0.05969664563997057</v>
       </c>
       <c r="F7">
-        <v>6.054795236250726</v>
+        <v>6.147345701981322</v>
       </c>
       <c r="G7">
-        <v>1.795601936007387</v>
+        <v>0.0006854514273383167</v>
       </c>
       <c r="H7">
-        <v>3.517206639693853</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>4.745013267044129</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2627042325962634</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.83315815005176</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,8 +691,14 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.08020620117987676</v>
+        <v>0.1772870390927466</v>
       </c>
       <c r="D8">
-        <v>0.3882574154366836</v>
+        <v>0.184895435411633</v>
       </c>
       <c r="E8">
-        <v>1.753231216054871</v>
+        <v>0.0719485116379488</v>
       </c>
       <c r="F8">
-        <v>7.695598283181653</v>
+        <v>8.520645275083012</v>
       </c>
       <c r="G8">
-        <v>2.286954042850567</v>
+        <v>0.0006195513677448098</v>
       </c>
       <c r="H8">
-        <v>4.469701074760508</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>6.033215655622683</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3426857488542367</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>23.06854122106597</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,8 +738,14 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1250495651616035</v>
+        <v>0.1772870390927466</v>
       </c>
       <c r="D9">
-        <v>0.5993871033684002</v>
+        <v>0.184895435411633</v>
       </c>
       <c r="E9">
-        <v>2.762395830775816</v>
+        <v>0.0719485116379488</v>
       </c>
       <c r="F9">
-        <v>11.63355206109716</v>
+        <v>8.520645275083012</v>
       </c>
       <c r="G9">
-        <v>3.466433560994233</v>
+        <v>0.0006195513677448098</v>
       </c>
       <c r="H9">
-        <v>6.762148675542988</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>9.127625230406522</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3426857488542367</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.06854122106597</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,8 +785,14 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1752671812982953</v>
+        <v>0.1772870390927466</v>
       </c>
       <c r="D10">
-        <v>0.8298316436252833</v>
+        <v>0.184895435411633</v>
       </c>
       <c r="E10">
-        <v>3.931778026932449</v>
+        <v>0.0719485116379488</v>
       </c>
       <c r="F10">
-        <v>15.73173279762347</v>
+        <v>8.520645275083012</v>
       </c>
       <c r="G10">
-        <v>4.696453779879079</v>
+        <v>0.0006195513677448098</v>
       </c>
       <c r="H10">
-        <v>9.158347346980946</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>12.35313029578558</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3426857488542367</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.06854122106597</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,8 +832,14 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2127530315990924</v>
+        <v>0.1772870390927466</v>
       </c>
       <c r="D11">
-        <v>0.9967718737524365</v>
+        <v>0.184895435411633</v>
       </c>
       <c r="E11">
-        <v>4.847224704786584</v>
+        <v>0.0719485116379488</v>
       </c>
       <c r="F11">
-        <v>18.54215413935702</v>
+        <v>8.520645275083012</v>
       </c>
       <c r="G11">
-        <v>5.542920599432279</v>
+        <v>0.0006195513677448098</v>
       </c>
       <c r="H11">
-        <v>10.80930131959173</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>14.56921129957206</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3426857488542367</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.06854122106597</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,8 +879,14 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2350910600209062</v>
+        <v>0.1772870390927466</v>
       </c>
       <c r="D12">
-        <v>1.093782860189663</v>
+        <v>0.184895435411633</v>
       </c>
       <c r="E12">
-        <v>5.418344453258783</v>
+        <v>0.0719485116379488</v>
       </c>
       <c r="F12">
-        <v>20.10279501983223</v>
+        <v>8.520645275083012</v>
       </c>
       <c r="G12">
-        <v>6.014556072528194</v>
+        <v>0.0006195513677448098</v>
       </c>
       <c r="H12">
-        <v>11.72958650239937</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>15.80171306403767</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3426857488542367</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.06854122106597</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,8 +926,14 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2294568982377285</v>
+        <v>0.1772870390927466</v>
       </c>
       <c r="D13">
-        <v>1.069505146886229</v>
+        <v>0.184895435411633</v>
       </c>
       <c r="E13">
-        <v>5.272094506313437</v>
+        <v>0.0719485116379488</v>
       </c>
       <c r="F13">
-        <v>19.71770840549891</v>
+        <v>8.520645275083012</v>
       </c>
       <c r="G13">
-        <v>5.89805086323355</v>
+        <v>0.0006195513677448098</v>
       </c>
       <c r="H13">
-        <v>11.50223698818257</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>15.49744804253177</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3426857488542367</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>23.06854122106597</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,8 +973,14 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2143018778513834</v>
+        <v>0.1772870390927466</v>
       </c>
       <c r="D14">
-        <v>1.0035618128029</v>
+        <v>0.184895435411633</v>
       </c>
       <c r="E14">
-        <v>4.886114542174084</v>
+        <v>0.0719485116379488</v>
       </c>
       <c r="F14">
-        <v>18.65323548092084</v>
+        <v>8.520645275083012</v>
       </c>
       <c r="G14">
-        <v>5.576446646812514</v>
+        <v>0.0006195513677448098</v>
       </c>
       <c r="H14">
-        <v>10.87471238489744</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>14.65688691815126</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3426857488542367</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>23.06854122106597</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,8 +1020,14 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2065804041116337</v>
+        <v>0.1772870390927466</v>
       </c>
       <c r="D15">
-        <v>0.9696224565072669</v>
+        <v>0.184895435411633</v>
       </c>
       <c r="E15">
-        <v>4.693176405132306</v>
+        <v>0.0719485116379488</v>
       </c>
       <c r="F15">
-        <v>18.09534799421965</v>
+        <v>8.520645275083012</v>
       </c>
       <c r="G15">
-        <v>5.408127813488392</v>
+        <v>0.0006195513677448098</v>
       </c>
       <c r="H15">
-        <v>10.54632730714798</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>14.21662199713214</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3426857488542367</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>23.06854122106597</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,8 +1067,14 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1733316872158781</v>
+        <v>0.1772870390927466</v>
       </c>
       <c r="D16">
-        <v>0.821085043803663</v>
+        <v>0.184895435411633</v>
       </c>
       <c r="E16">
-        <v>3.885667346789319</v>
+        <v>0.0719485116379488</v>
       </c>
       <c r="F16">
-        <v>15.58054446141182</v>
+        <v>8.520645275083012</v>
       </c>
       <c r="G16">
-        <v>4.650999687458238</v>
+        <v>0.0006195513677448098</v>
       </c>
       <c r="H16">
-        <v>9.069729770101134</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>12.23402113215514</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3426857488542367</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>23.06854122106597</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,8 +1114,14 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1579238828963838</v>
+        <v>0.1772870390927466</v>
       </c>
       <c r="D17">
-        <v>0.7510496045470063</v>
+        <v>0.184895435411633</v>
       </c>
       <c r="E17">
-        <v>3.521908357147126</v>
+        <v>0.0719485116379488</v>
       </c>
       <c r="F17">
-        <v>14.35694546536257</v>
+        <v>8.520645275083012</v>
       </c>
       <c r="G17">
-        <v>4.283378398818115</v>
+        <v>0.0006195513677448098</v>
       </c>
       <c r="H17">
-        <v>8.353182588026328</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>11.27039530521301</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3426857488542367</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>23.06854122106597</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,8 +1161,14 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1500673982570362</v>
+        <v>0.1772870390927466</v>
       </c>
       <c r="D18">
-        <v>0.7150710051397766</v>
+        <v>0.184895435411633</v>
       </c>
       <c r="E18">
-        <v>3.338502091808792</v>
+        <v>0.0719485116379488</v>
       </c>
       <c r="F18">
-        <v>13.71969354234716</v>
+        <v>8.520645275083012</v>
       </c>
       <c r="G18">
-        <v>4.092078337550646</v>
+        <v>0.0006195513677448098</v>
       </c>
       <c r="H18">
-        <v>7.980442233114871</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>10.76877036551645</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3426857488542367</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>23.06854122106597</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,8 +1208,14 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1475406677164415</v>
+        <v>0.1772870390927466</v>
       </c>
       <c r="D19">
-        <v>0.7034630647856659</v>
+        <v>0.184895435411633</v>
       </c>
       <c r="E19">
-        <v>3.279788881531061</v>
+        <v>0.0719485116379488</v>
       </c>
       <c r="F19">
-        <v>13.51288587350021</v>
+        <v>8.520645275083012</v>
       </c>
       <c r="G19">
-        <v>4.030016340099849</v>
+        <v>0.0006195513677448098</v>
       </c>
       <c r="H19">
-        <v>7.859538131293391</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>10.6060100865524</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3426857488542367</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>23.06854122106597</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,8 +1255,14 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1594493055455359</v>
+        <v>0.1772870390927466</v>
       </c>
       <c r="D20">
-        <v>0.758014771945966</v>
+        <v>0.184895435411633</v>
       </c>
       <c r="E20">
-        <v>3.557673396310975</v>
+        <v>0.0719485116379488</v>
       </c>
       <c r="F20">
-        <v>14.47964662946873</v>
+        <v>8.520645275083012</v>
       </c>
       <c r="G20">
-        <v>4.320224383162014</v>
+        <v>0.0006195513677448098</v>
       </c>
       <c r="H20">
-        <v>8.424986319047292</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>11.36699957566131</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3426857488542367</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.06854122106597</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,8 +1302,14 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2183628511518094</v>
+        <v>0.1772870390927466</v>
       </c>
       <c r="D21">
-        <v>1.0213209680266</v>
+        <v>0.184895435411633</v>
       </c>
       <c r="E21">
-        <v>4.988550918258852</v>
+        <v>0.0719485116379488</v>
       </c>
       <c r="F21">
-        <v>18.94249107967215</v>
+        <v>8.520645275083012</v>
       </c>
       <c r="G21">
-        <v>5.663777645896602</v>
+        <v>0.0006195513677448098</v>
       </c>
       <c r="H21">
-        <v>11.04510558225954</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>14.88522823841936</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3426857488542367</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>23.06854122106597</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,8 +1349,14 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2183628511518094</v>
+        <v>0.1772870390927466</v>
       </c>
       <c r="D22">
-        <v>1.0213209680266</v>
+        <v>0.184895435411633</v>
       </c>
       <c r="E22">
-        <v>4.988550918258852</v>
+        <v>0.0719485116379488</v>
       </c>
       <c r="F22">
-        <v>18.94249107967215</v>
+        <v>8.520645275083012</v>
       </c>
       <c r="G22">
-        <v>5.663777645896602</v>
+        <v>0.0006195513677448098</v>
       </c>
       <c r="H22">
-        <v>11.04510558225954</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>14.88522823841936</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3426857488542367</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.06854122106597</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,8 +1396,14 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2183628511518094</v>
+        <v>0.1772870390927466</v>
       </c>
       <c r="D23">
-        <v>1.0213209680266</v>
+        <v>0.184895435411633</v>
       </c>
       <c r="E23">
-        <v>4.988550918258852</v>
+        <v>0.0719485116379488</v>
       </c>
       <c r="F23">
-        <v>18.94249107967215</v>
+        <v>8.520645275083012</v>
       </c>
       <c r="G23">
-        <v>5.663777645896602</v>
+        <v>0.0006195513677448098</v>
       </c>
       <c r="H23">
-        <v>11.04510558225954</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>14.88522823841936</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3426857488542367</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>23.06854122106597</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,8 +1443,14 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2183628511518094</v>
+        <v>0.1772870390927466</v>
       </c>
       <c r="D24">
-        <v>1.0213209680266</v>
+        <v>0.184895435411633</v>
       </c>
       <c r="E24">
-        <v>4.988550918258852</v>
+        <v>0.0719485116379488</v>
       </c>
       <c r="F24">
-        <v>18.94249107967215</v>
+        <v>8.520645275083012</v>
       </c>
       <c r="G24">
-        <v>5.663777645896602</v>
+        <v>0.0006195513677448098</v>
       </c>
       <c r="H24">
-        <v>11.04510558225954</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>14.88522823841936</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3426857488542367</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.06854122106597</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,8 +1490,14 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2183628511518094</v>
+        <v>0.1772870390927466</v>
       </c>
       <c r="D25">
-        <v>1.0213209680266</v>
+        <v>0.184895435411633</v>
       </c>
       <c r="E25">
-        <v>4.988550918258852</v>
+        <v>0.0719485116379488</v>
       </c>
       <c r="F25">
-        <v>18.94249107967215</v>
+        <v>8.520645275083012</v>
       </c>
       <c r="G25">
-        <v>5.663777645896602</v>
+        <v>0.0006195513677448098</v>
       </c>
       <c r="H25">
-        <v>11.04510558225954</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>14.88522823841936</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3426857488542367</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>23.06854122106597</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1924219156306464</v>
+        <v>0.03140754680577729</v>
       </c>
       <c r="D2">
-        <v>0.2153071761648135</v>
+        <v>0.00292833330493103</v>
       </c>
       <c r="E2">
-        <v>0.07572889055964183</v>
+        <v>0.03427529969824405</v>
       </c>
       <c r="F2">
-        <v>9.393002243096817</v>
+        <v>2.656792879683849</v>
       </c>
       <c r="G2">
-        <v>0.0005991385405196662</v>
+        <v>0.0008239637730675077</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.796616847781905</v>
       </c>
       <c r="J2">
-        <v>0.3702898235330707</v>
+        <v>0.08745340351729425</v>
       </c>
       <c r="K2">
-        <v>24.72812375909979</v>
+        <v>3.615256735286891</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7180075535006694</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1521720551695012</v>
+        <v>0.03220385921710722</v>
       </c>
       <c r="D3">
-        <v>0.138987800901532</v>
+        <v>0.00259384571971033</v>
       </c>
       <c r="E3">
-        <v>0.06536960663140334</v>
+        <v>0.03273027160762076</v>
       </c>
       <c r="F3">
-        <v>7.16537722881526</v>
+        <v>2.47201313607799</v>
       </c>
       <c r="G3">
-        <v>0.0006549082855581533</v>
+        <v>0.0008331070982007204</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.660888433525528</v>
       </c>
       <c r="J3">
-        <v>0.2980439405052095</v>
+        <v>0.0841082036642149</v>
       </c>
       <c r="K3">
-        <v>20.23233261822304</v>
+        <v>3.130484888503986</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.6263511684685099</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1317244278500738</v>
+        <v>0.0326912200614764</v>
       </c>
       <c r="D4">
-        <v>0.1058965585186655</v>
+        <v>0.002395460176343178</v>
       </c>
       <c r="E4">
-        <v>0.05972654092230556</v>
+        <v>0.0318248606143321</v>
       </c>
       <c r="F4">
-        <v>6.152366740522922</v>
+        <v>2.364351824354998</v>
       </c>
       <c r="G4">
-        <v>0.0006852899143781068</v>
+        <v>0.0008388629509160774</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.581610102841907</v>
       </c>
       <c r="J4">
-        <v>0.2628832338502605</v>
+        <v>0.08221083351461189</v>
       </c>
       <c r="K4">
-        <v>17.84569816813269</v>
+        <v>2.837510195728072</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5710610295209975</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1240444955148376</v>
+        <v>0.0328896185248162</v>
       </c>
       <c r="D5">
-        <v>0.09448662881753478</v>
+        <v>0.002316023637945364</v>
       </c>
       <c r="E5">
-        <v>0.05753894209802013</v>
+        <v>0.03146610203332934</v>
       </c>
       <c r="F5">
-        <v>5.794274785694711</v>
+        <v>2.321805487126809</v>
       </c>
       <c r="G5">
-        <v>0.0006971323357598138</v>
+        <v>0.0008412460744109993</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.550229707035669</v>
       </c>
       <c r="J5">
-        <v>0.2499815343420266</v>
+        <v>0.08147415691581017</v>
       </c>
       <c r="K5">
-        <v>16.93081830834257</v>
+        <v>2.719133280188203</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.548746925035708</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1228010282812022</v>
+        <v>0.03292255550000256</v>
       </c>
       <c r="D6">
-        <v>0.09269252119636917</v>
+        <v>0.002302908929944003</v>
       </c>
       <c r="E6">
-        <v>0.05718118367351721</v>
+        <v>0.03140712821999081</v>
       </c>
       <c r="F6">
-        <v>5.737496497137016</v>
+        <v>2.314817213701602</v>
       </c>
       <c r="G6">
-        <v>0.0006990741254375657</v>
+        <v>0.0008416441120075476</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.545072340323287</v>
       </c>
       <c r="J6">
-        <v>0.2479092886959933</v>
+        <v>0.08135395875291707</v>
       </c>
       <c r="K6">
-        <v>16.78172016085364</v>
+        <v>2.699533543947695</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5450539368889054</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1316185773506788</v>
+        <v>0.03269389631549124</v>
       </c>
       <c r="D7">
-        <v>0.1057354712571126</v>
+        <v>0.002394383597295935</v>
       </c>
       <c r="E7">
-        <v>0.05969664563997057</v>
+        <v>0.03181998179983658</v>
       </c>
       <c r="F7">
-        <v>6.147345701981322</v>
+        <v>2.363772822913702</v>
       </c>
       <c r="G7">
-        <v>0.0006854514273383167</v>
+        <v>0.0008388949359992601</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.5811832650258</v>
       </c>
       <c r="J7">
-        <v>0.2627042325962634</v>
+        <v>0.08220075418639183</v>
       </c>
       <c r="K7">
-        <v>17.83315815005176</v>
+        <v>2.835909828448223</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.5707592539608299</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1772870390927466</v>
+        <v>0.03168256126613933</v>
       </c>
       <c r="D8">
-        <v>0.184895435411633</v>
+        <v>0.002811323541660471</v>
       </c>
       <c r="E8">
-        <v>0.0719485116379488</v>
+        <v>0.03373317686433808</v>
       </c>
       <c r="F8">
-        <v>8.520645275083012</v>
+        <v>2.591796056737849</v>
       </c>
       <c r="G8">
-        <v>0.0006195513677448098</v>
+        <v>0.0008270881568029628</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.748915549220669</v>
       </c>
       <c r="J8">
-        <v>0.3426857488542367</v>
+        <v>0.08626567726495793</v>
       </c>
       <c r="K8">
-        <v>23.06854122106597</v>
+        <v>3.447033380646076</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.6861798397133185</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1772870390927466</v>
+        <v>0.02967762605835134</v>
       </c>
       <c r="D9">
-        <v>0.184895435411633</v>
+        <v>0.003703278318363701</v>
       </c>
       <c r="E9">
-        <v>0.0719485116379488</v>
+        <v>0.03786177297473969</v>
       </c>
       <c r="F9">
-        <v>8.520645275083012</v>
+        <v>3.091476103701467</v>
       </c>
       <c r="G9">
-        <v>0.0006195513677448098</v>
+        <v>0.0008049648844418004</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.114800734475168</v>
       </c>
       <c r="J9">
-        <v>0.3426857488542367</v>
+        <v>0.09562279476844537</v>
       </c>
       <c r="K9">
-        <v>23.06854122106597</v>
+        <v>4.69083564841884</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.9219300845793512</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1772870390927466</v>
+        <v>0.02817766963979551</v>
       </c>
       <c r="D10">
-        <v>0.184895435411633</v>
+        <v>0.004435798069064134</v>
       </c>
       <c r="E10">
-        <v>0.0719485116379488</v>
+        <v>0.04117781084475958</v>
       </c>
       <c r="F10">
-        <v>8.520645275083012</v>
+        <v>3.500928250895299</v>
       </c>
       <c r="G10">
-        <v>0.0006195513677448098</v>
+        <v>0.0007891890830525195</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.413633183100984</v>
       </c>
       <c r="J10">
-        <v>0.3426857488542367</v>
+        <v>0.1035672174038567</v>
       </c>
       <c r="K10">
-        <v>23.06854122106597</v>
+        <v>5.645453337441779</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.103370112302201</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1772870390927466</v>
+        <v>0.02748614708743524</v>
       </c>
       <c r="D11">
-        <v>0.184895435411633</v>
+        <v>0.004794874742678701</v>
       </c>
       <c r="E11">
-        <v>0.0719485116379488</v>
+        <v>0.04276151075431933</v>
       </c>
       <c r="F11">
-        <v>8.520645275083012</v>
+        <v>3.699084718887093</v>
       </c>
       <c r="G11">
-        <v>0.0006195513677448098</v>
+        <v>0.0007820773507418818</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.55805192694153</v>
       </c>
       <c r="J11">
-        <v>0.3426857488542367</v>
+        <v>0.107472118324111</v>
       </c>
       <c r="K11">
-        <v>23.06854122106597</v>
+        <v>6.092032114879089</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.188353137993886</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1772870390927466</v>
+        <v>0.02722266472162005</v>
       </c>
       <c r="D12">
-        <v>0.184895435411633</v>
+        <v>0.004935511447047958</v>
       </c>
       <c r="E12">
-        <v>0.0719485116379488</v>
+        <v>0.04337336063620967</v>
       </c>
       <c r="F12">
-        <v>8.520645275083012</v>
+        <v>3.776094732768911</v>
       </c>
       <c r="G12">
-        <v>0.0006195513677448098</v>
+        <v>0.0007793898902755632</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.614149569086564</v>
       </c>
       <c r="J12">
-        <v>0.3426857488542367</v>
+        <v>0.1089983312948419</v>
       </c>
       <c r="K12">
-        <v>23.06854122106597</v>
+        <v>6.263246637421901</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.220949168762957</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1772870390927466</v>
+        <v>0.02727948733568475</v>
       </c>
       <c r="D13">
-        <v>0.184895435411633</v>
+        <v>0.00490499841481018</v>
       </c>
       <c r="E13">
-        <v>0.0719485116379488</v>
+        <v>0.04324102502130422</v>
       </c>
       <c r="F13">
-        <v>8.520645275083012</v>
+        <v>3.759416940317976</v>
       </c>
       <c r="G13">
-        <v>0.0006195513677448098</v>
+        <v>0.0007799684988023959</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.602001927528008</v>
       </c>
       <c r="J13">
-        <v>0.3426857488542367</v>
+        <v>0.1086674218781667</v>
       </c>
       <c r="K13">
-        <v>23.06854122106597</v>
+        <v>6.2262730773557</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.213909476585044</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1772870390927466</v>
+        <v>0.02746450445518356</v>
       </c>
       <c r="D14">
-        <v>0.184895435411633</v>
+        <v>0.004806345497023301</v>
       </c>
       <c r="E14">
-        <v>0.0719485116379488</v>
+        <v>0.04281159655114664</v>
       </c>
       <c r="F14">
-        <v>8.520645275083012</v>
+        <v>3.705379211438185</v>
       </c>
       <c r="G14">
-        <v>0.0006195513677448098</v>
+        <v>0.0007818561627411818</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.562637678975108</v>
       </c>
       <c r="J14">
-        <v>0.3426857488542367</v>
+        <v>0.1075966931972374</v>
       </c>
       <c r="K14">
-        <v>23.06854122106597</v>
+        <v>6.106073768418582</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.191026125039471</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1772870390927466</v>
+        <v>0.02757761282452265</v>
       </c>
       <c r="D15">
-        <v>0.184895435411633</v>
+        <v>0.004746556080352349</v>
       </c>
       <c r="E15">
-        <v>0.0719485116379488</v>
+        <v>0.04255018211551764</v>
       </c>
       <c r="F15">
-        <v>8.520645275083012</v>
+        <v>3.672544836836153</v>
       </c>
       <c r="G15">
-        <v>0.0006195513677448098</v>
+        <v>0.000783013021288672</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.538715600436063</v>
       </c>
       <c r="J15">
-        <v>0.3426857488542367</v>
+        <v>0.1069472104917182</v>
       </c>
       <c r="K15">
-        <v>23.06854122106597</v>
+        <v>6.03273305781812</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.177065462570624</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1772870390927466</v>
+        <v>0.0282226526542626</v>
       </c>
       <c r="D16">
-        <v>0.184895435411633</v>
+        <v>0.00441292843156571</v>
       </c>
       <c r="E16">
-        <v>0.0719485116379488</v>
+        <v>0.04107593479209015</v>
       </c>
       <c r="F16">
-        <v>8.520645275083012</v>
+        <v>3.488239169853756</v>
       </c>
       <c r="G16">
-        <v>0.0006195513677448098</v>
+        <v>0.0007896548486577036</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.404381335102045</v>
       </c>
       <c r="J16">
-        <v>0.3426857488542367</v>
+        <v>0.1033183447395416</v>
       </c>
       <c r="K16">
-        <v>23.06854122106597</v>
+        <v>5.61654366908806</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.097870673298324</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1772870390927466</v>
+        <v>0.02861580810175646</v>
       </c>
       <c r="D17">
-        <v>0.184895435411633</v>
+        <v>0.004215496626996718</v>
       </c>
       <c r="E17">
-        <v>0.0719485116379488</v>
+        <v>0.04019168201507206</v>
       </c>
       <c r="F17">
-        <v>8.520645275083012</v>
+        <v>3.37839516515487</v>
       </c>
       <c r="G17">
-        <v>0.0006195513677448098</v>
+        <v>0.000793743495448921</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.324270190074543</v>
       </c>
       <c r="J17">
-        <v>0.3426857488542367</v>
+        <v>0.1011704665920874</v>
       </c>
       <c r="K17">
-        <v>23.06854122106597</v>
+        <v>5.364602629250612</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.049955698431759</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1772870390927466</v>
+        <v>0.0288410954475431</v>
       </c>
       <c r="D18">
-        <v>0.184895435411633</v>
+        <v>0.004104305914932382</v>
       </c>
       <c r="E18">
-        <v>0.0719485116379488</v>
+        <v>0.03969007421806303</v>
       </c>
       <c r="F18">
-        <v>8.520645275083012</v>
+        <v>3.316317672698204</v>
       </c>
       <c r="G18">
-        <v>0.0006195513677448098</v>
+        <v>0.0007961015225935858</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.278977546052147</v>
       </c>
       <c r="J18">
-        <v>0.3426857488542367</v>
+        <v>0.09996206624299475</v>
       </c>
       <c r="K18">
-        <v>23.06854122106597</v>
+        <v>5.220829710447447</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.02262213931791</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1772870390927466</v>
+        <v>0.02891723732107643</v>
       </c>
       <c r="D19">
-        <v>0.184895435411633</v>
+        <v>0.004067039234378456</v>
       </c>
       <c r="E19">
-        <v>0.0719485116379488</v>
+        <v>0.03952140174416563</v>
       </c>
       <c r="F19">
-        <v>8.520645275083012</v>
+        <v>3.295481156402133</v>
       </c>
       <c r="G19">
-        <v>0.0006195513677448098</v>
+        <v>0.0007969011048837293</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.263771723024817</v>
       </c>
       <c r="J19">
-        <v>0.3426857488542367</v>
+        <v>0.09955739998721924</v>
       </c>
       <c r="K19">
-        <v>23.06854122106597</v>
+        <v>5.172336535043257</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.01340447555912</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1772870390927466</v>
+        <v>0.0285740455823813</v>
       </c>
       <c r="D20">
-        <v>0.184895435411633</v>
+        <v>0.00423626234620933</v>
       </c>
       <c r="E20">
-        <v>0.0719485116379488</v>
+        <v>0.04028507968459571</v>
       </c>
       <c r="F20">
-        <v>8.520645275083012</v>
+        <v>3.389972426632113</v>
       </c>
       <c r="G20">
-        <v>0.0006195513677448098</v>
+        <v>0.0007933076204797148</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.332715603888118</v>
       </c>
       <c r="J20">
-        <v>0.3426857488542367</v>
+        <v>0.1013962786339704</v>
       </c>
       <c r="K20">
-        <v>23.06854122106597</v>
+        <v>5.391302253202639</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.055032523359174</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1772870390927466</v>
+        <v>0.02741020685017403</v>
       </c>
       <c r="D21">
-        <v>0.184895435411633</v>
+        <v>0.004835187265619822</v>
       </c>
       <c r="E21">
-        <v>0.0719485116379488</v>
+        <v>0.04293738927217916</v>
       </c>
       <c r="F21">
-        <v>8.520645275083012</v>
+        <v>3.721195592786643</v>
       </c>
       <c r="G21">
-        <v>0.0006195513677448098</v>
+        <v>0.0007813015903213048</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.574160008648491</v>
       </c>
       <c r="J21">
-        <v>0.3426857488542367</v>
+        <v>0.1079098534751068</v>
       </c>
       <c r="K21">
-        <v>23.06854122106597</v>
+        <v>6.141319194037294</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.197735713110688</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1772870390927466</v>
+        <v>0.02663998316395855</v>
       </c>
       <c r="D22">
-        <v>0.184895435411633</v>
+        <v>0.005254374250817762</v>
       </c>
       <c r="E22">
-        <v>0.0719485116379488</v>
+        <v>0.04474232166565528</v>
       </c>
       <c r="F22">
-        <v>8.520645275083012</v>
+        <v>3.949316512687034</v>
       </c>
       <c r="G22">
-        <v>0.0006195513677448098</v>
+        <v>0.00077348546436579</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.740282185321064</v>
       </c>
       <c r="J22">
-        <v>0.3426857488542367</v>
+        <v>0.1124470298787728</v>
       </c>
       <c r="K22">
-        <v>23.06854122106597</v>
+        <v>6.643958919762667</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.293454555195737</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1772870390927466</v>
+        <v>0.02705204873397093</v>
       </c>
       <c r="D23">
-        <v>0.184895435411633</v>
+        <v>0.005027743967682241</v>
       </c>
       <c r="E23">
-        <v>0.0719485116379488</v>
+        <v>0.04377196791268467</v>
       </c>
       <c r="F23">
-        <v>8.520645275083012</v>
+        <v>3.826401472811568</v>
       </c>
       <c r="G23">
-        <v>0.0006195513677448098</v>
+        <v>0.0007776556555446322</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.650787638940329</v>
       </c>
       <c r="J23">
-        <v>0.3426857488542367</v>
+        <v>0.1099977240647902</v>
       </c>
       <c r="K23">
-        <v>23.06854122106597</v>
+        <v>6.374427131800303</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.242119699208345</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1772870390927466</v>
+        <v>0.02859292870935626</v>
       </c>
       <c r="D24">
-        <v>0.184895435411633</v>
+        <v>0.004226867021159819</v>
       </c>
       <c r="E24">
-        <v>0.0719485116379488</v>
+        <v>0.04024283363685122</v>
       </c>
       <c r="F24">
-        <v>8.520645275083012</v>
+        <v>3.384735022972308</v>
       </c>
       <c r="G24">
-        <v>0.0006195513677448098</v>
+        <v>0.000793504656293496</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.328895065632224</v>
       </c>
       <c r="J24">
-        <v>0.3426857488542367</v>
+        <v>0.1012941070626923</v>
       </c>
       <c r="K24">
-        <v>23.06854122106597</v>
+        <v>5.379228040778116</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.052736630777233</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1772870390927466</v>
+        <v>0.03022369439196915</v>
       </c>
       <c r="D25">
-        <v>0.184895435411633</v>
+        <v>0.003451076922614149</v>
       </c>
       <c r="E25">
-        <v>0.0719485116379488</v>
+        <v>0.03669943496158545</v>
       </c>
       <c r="F25">
-        <v>8.520645275083012</v>
+        <v>2.949686344954188</v>
       </c>
       <c r="G25">
-        <v>0.0006195513677448098</v>
+        <v>0.0008108539763625929</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.011144135254398</v>
       </c>
       <c r="J25">
-        <v>0.3426857488542367</v>
+        <v>0.09292147362494063</v>
       </c>
       <c r="K25">
-        <v>23.06854122106597</v>
+        <v>4.34823768993698</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.8569065333233112</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03140754680577729</v>
+        <v>0.05220474713279089</v>
       </c>
       <c r="D2">
-        <v>0.00292833330493103</v>
+        <v>0.02658993030757895</v>
       </c>
       <c r="E2">
-        <v>0.03427529969824405</v>
+        <v>0.08120587560143022</v>
       </c>
       <c r="F2">
-        <v>2.656792879683849</v>
+        <v>3.465295741364642</v>
       </c>
       <c r="G2">
-        <v>0.0008239637730675077</v>
+        <v>0.002579552978083601</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.796616847781905</v>
+        <v>2.14013408902683</v>
       </c>
       <c r="J2">
-        <v>0.08745340351729425</v>
+        <v>0.1608193225917098</v>
       </c>
       <c r="K2">
-        <v>3.615256735286891</v>
+        <v>2.090512574869308</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7180075535006694</v>
+        <v>0.5570167462983449</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03220385921710722</v>
+        <v>0.05227561025740712</v>
       </c>
       <c r="D3">
-        <v>0.00259384571971033</v>
+        <v>0.02650821429285344</v>
       </c>
       <c r="E3">
-        <v>0.03273027160762076</v>
+        <v>0.08124657572336424</v>
       </c>
       <c r="F3">
-        <v>2.47201313607799</v>
+        <v>3.440747979239873</v>
       </c>
       <c r="G3">
-        <v>0.0008331070982007204</v>
+        <v>0.002585131270926665</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.660888433525528</v>
+        <v>2.119628399256584</v>
       </c>
       <c r="J3">
-        <v>0.0841082036642149</v>
+        <v>0.1609016120906652</v>
       </c>
       <c r="K3">
-        <v>3.130484888503986</v>
+        <v>1.973856505297704</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6263511684685099</v>
+        <v>0.5365731575288208</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0326912200614764</v>
+        <v>0.0523194122381625</v>
       </c>
       <c r="D4">
-        <v>0.002395460176343178</v>
+        <v>0.0264606825863325</v>
       </c>
       <c r="E4">
-        <v>0.0318248606143321</v>
+        <v>0.08129904871564797</v>
       </c>
       <c r="F4">
-        <v>2.364351824354998</v>
+        <v>3.427531264312449</v>
       </c>
       <c r="G4">
-        <v>0.0008388629509160774</v>
+        <v>0.002588734646954183</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.581610102841907</v>
+        <v>2.108249041950685</v>
       </c>
       <c r="J4">
-        <v>0.08221083351461189</v>
+        <v>0.1610184899416005</v>
       </c>
       <c r="K4">
-        <v>2.837510195728072</v>
+        <v>1.903462215963629</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5710610295209975</v>
+        <v>0.5243476364700683</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0328896185248162</v>
+        <v>0.05233734346509245</v>
       </c>
       <c r="D5">
-        <v>0.002316023637945364</v>
+        <v>0.02644198542099385</v>
       </c>
       <c r="E5">
-        <v>0.03146610203332934</v>
+        <v>0.08132735324904772</v>
       </c>
       <c r="F5">
-        <v>2.321805487126809</v>
+        <v>3.422609825362201</v>
       </c>
       <c r="G5">
-        <v>0.0008412460744109993</v>
+        <v>0.002590248040220075</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.550229707035669</v>
+        <v>2.103914777847038</v>
       </c>
       <c r="J5">
-        <v>0.08147415691581017</v>
+        <v>0.1610827683517009</v>
       </c>
       <c r="K5">
-        <v>2.719133280188203</v>
+        <v>1.875085283132023</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.548746925035708</v>
+        <v>0.5194477608475196</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03292255550000256</v>
+        <v>0.05234032610205652</v>
       </c>
       <c r="D6">
-        <v>0.002302908929944003</v>
+        <v>0.02643892162484374</v>
       </c>
       <c r="E6">
-        <v>0.03140712821999081</v>
+        <v>0.08133247154443701</v>
       </c>
       <c r="F6">
-        <v>2.314817213701602</v>
+        <v>3.421820614870725</v>
       </c>
       <c r="G6">
-        <v>0.0008416441120075476</v>
+        <v>0.002590502059580446</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.545072340323287</v>
+        <v>2.103213323780821</v>
       </c>
       <c r="J6">
-        <v>0.08135395875291707</v>
+        <v>0.1610944463212221</v>
       </c>
       <c r="K6">
-        <v>2.699533543947695</v>
+        <v>1.87039197637327</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5450539368889054</v>
+        <v>0.5186390980655489</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03269389631549124</v>
+        <v>0.05231965372403913</v>
       </c>
       <c r="D7">
-        <v>0.002394383597295935</v>
+        <v>0.02646042769641799</v>
       </c>
       <c r="E7">
-        <v>0.03181998179983658</v>
+        <v>0.08129940240171685</v>
       </c>
       <c r="F7">
-        <v>2.363772822913702</v>
+        <v>3.427463014284697</v>
       </c>
       <c r="G7">
-        <v>0.0008388949359992601</v>
+        <v>0.002588754875011711</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.5811832650258</v>
+        <v>2.108189364260227</v>
       </c>
       <c r="J7">
-        <v>0.08220075418639183</v>
+        <v>0.1610192894545399</v>
       </c>
       <c r="K7">
-        <v>2.835909828448223</v>
+        <v>1.903078263277109</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5707592539608299</v>
+        <v>0.5242812226248788</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03168256126613933</v>
+        <v>0.05222912506803468</v>
       </c>
       <c r="D8">
-        <v>0.002811323541660471</v>
+        <v>0.02656121083919771</v>
       </c>
       <c r="E8">
-        <v>0.03373317686433808</v>
+        <v>0.08121421102755377</v>
       </c>
       <c r="F8">
-        <v>2.591796056737849</v>
+        <v>3.456445205875227</v>
       </c>
       <c r="G8">
-        <v>0.0008270881568029628</v>
+        <v>0.00258143946600424</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.748915549220669</v>
+        <v>2.132811329935421</v>
       </c>
       <c r="J8">
-        <v>0.08626567726495793</v>
+        <v>0.1608339032785544</v>
       </c>
       <c r="K8">
-        <v>3.447033380646076</v>
+        <v>2.05003314877473</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6861798397133185</v>
+        <v>0.5498998815928644</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02967762605835134</v>
+        <v>0.05205355261085742</v>
       </c>
       <c r="D9">
-        <v>0.003703278318363701</v>
+        <v>0.02677949806094126</v>
       </c>
       <c r="E9">
-        <v>0.03786177297473969</v>
+        <v>0.08126482694335202</v>
       </c>
       <c r="F9">
-        <v>3.091476103701467</v>
+        <v>3.528107452267562</v>
       </c>
       <c r="G9">
-        <v>0.0008049648844418004</v>
+        <v>0.002568501362705266</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.114800734475168</v>
+        <v>2.190784928082209</v>
       </c>
       <c r="J9">
-        <v>0.09562279476844537</v>
+        <v>0.1609985594205199</v>
       </c>
       <c r="K9">
-        <v>4.69083564841884</v>
+        <v>2.348048070053778</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9219300845793512</v>
+        <v>0.6027397118388365</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02817766963979551</v>
+        <v>0.0519252645217172</v>
       </c>
       <c r="D10">
-        <v>0.004435798069064134</v>
+        <v>0.02695209691471057</v>
       </c>
       <c r="E10">
-        <v>0.04117781084475958</v>
+        <v>0.08143430363444359</v>
       </c>
       <c r="F10">
-        <v>3.500928250895299</v>
+        <v>3.589951422636091</v>
       </c>
       <c r="G10">
-        <v>0.0007891890830525195</v>
+        <v>0.002559843622643387</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.413633183100984</v>
+        <v>2.239402598490031</v>
       </c>
       <c r="J10">
-        <v>0.1035672174038567</v>
+        <v>0.1614441443910835</v>
       </c>
       <c r="K10">
-        <v>5.645453337441779</v>
+        <v>2.573099597556222</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.103370112302201</v>
+        <v>0.6431635384790013</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02748614708743524</v>
+        <v>0.05186695587285506</v>
       </c>
       <c r="D11">
-        <v>0.004794874742678701</v>
+        <v>0.02703320373343132</v>
       </c>
       <c r="E11">
-        <v>0.04276151075431933</v>
+        <v>0.0815400537051918</v>
       </c>
       <c r="F11">
-        <v>3.699084718887093</v>
+        <v>3.620116272679496</v>
       </c>
       <c r="G11">
-        <v>0.0007820773507418818</v>
+        <v>0.0025560869430552</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.55805192694153</v>
+        <v>2.262854074450303</v>
       </c>
       <c r="J11">
-        <v>0.107472118324111</v>
+        <v>0.1617179236654209</v>
       </c>
       <c r="K11">
-        <v>6.092032114879089</v>
+        <v>2.67683089521023</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.188353137993886</v>
+        <v>0.6619053885797399</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02722266472162005</v>
+        <v>0.05184487543716187</v>
       </c>
       <c r="D12">
-        <v>0.004935511447047958</v>
+        <v>0.02706428389912219</v>
       </c>
       <c r="E12">
-        <v>0.04337336063620967</v>
+        <v>0.08158421158216989</v>
       </c>
       <c r="F12">
-        <v>3.776094732768911</v>
+        <v>3.631833689549296</v>
       </c>
       <c r="G12">
-        <v>0.0007793898902755632</v>
+        <v>0.002554690359273768</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.614149569086564</v>
+        <v>2.271928505133531</v>
       </c>
       <c r="J12">
-        <v>0.1089983312948419</v>
+        <v>0.1618318629584294</v>
       </c>
       <c r="K12">
-        <v>6.263246637421901</v>
+        <v>2.716307541507149</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.220949168762957</v>
+        <v>0.6690534211801662</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02727948733568475</v>
+        <v>0.05184963098033002</v>
       </c>
       <c r="D13">
-        <v>0.00490499841481018</v>
+        <v>0.0270575740043526</v>
       </c>
       <c r="E13">
-        <v>0.04324102502130422</v>
+        <v>0.08157451860467368</v>
       </c>
       <c r="F13">
-        <v>3.759416940317976</v>
+        <v>3.629296990012904</v>
       </c>
       <c r="G13">
-        <v>0.0007799684988023959</v>
+        <v>0.002554989985108258</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.602001927528008</v>
+        <v>2.269965511654263</v>
       </c>
       <c r="J13">
-        <v>0.1086674218781667</v>
+        <v>0.1618068668497514</v>
       </c>
       <c r="K13">
-        <v>6.2262730773557</v>
+        <v>2.707796810158982</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.213909476585044</v>
+        <v>0.6675116979306637</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02746450445518356</v>
+        <v>0.05186513934956949</v>
       </c>
       <c r="D14">
-        <v>0.004806345497023301</v>
+        <v>0.02703575339812758</v>
       </c>
       <c r="E14">
-        <v>0.04281159655114664</v>
+        <v>0.08154360422092921</v>
       </c>
       <c r="F14">
-        <v>3.705379211438185</v>
+        <v>3.621074352216993</v>
       </c>
       <c r="G14">
-        <v>0.0007818561627411818</v>
+        <v>0.002555971525234766</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.562637678975108</v>
+        <v>2.263596737097288</v>
       </c>
       <c r="J14">
-        <v>0.1075966931972374</v>
+        <v>0.1617270915403992</v>
       </c>
       <c r="K14">
-        <v>6.106073768418582</v>
+        <v>2.680074730784781</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.191026125039471</v>
+        <v>0.6624924404260781</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02757761282452265</v>
+        <v>0.05187463842675299</v>
       </c>
       <c r="D15">
-        <v>0.004746556080352349</v>
+        <v>0.02702243524930914</v>
       </c>
       <c r="E15">
-        <v>0.04255018211551764</v>
+        <v>0.08152520362606985</v>
       </c>
       <c r="F15">
-        <v>3.672544836836153</v>
+        <v>3.616076194500295</v>
       </c>
       <c r="G15">
-        <v>0.000783013021288672</v>
+        <v>0.002556576127067705</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.538715600436063</v>
+        <v>2.259720982119632</v>
       </c>
       <c r="J15">
-        <v>0.1069472104917182</v>
+        <v>0.1616795649780656</v>
       </c>
       <c r="K15">
-        <v>6.03273305781812</v>
+        <v>2.663119697176171</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.177065462570624</v>
+        <v>0.659424634068543</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0282226526542626</v>
+        <v>0.05192907550030235</v>
       </c>
       <c r="D16">
-        <v>0.00441292843156571</v>
+        <v>0.02694684802142255</v>
       </c>
       <c r="E16">
-        <v>0.04107593479209015</v>
+        <v>0.08142796853903533</v>
       </c>
       <c r="F16">
-        <v>3.488239169853756</v>
+        <v>3.58802117388089</v>
       </c>
       <c r="G16">
-        <v>0.0007896548486577036</v>
+        <v>0.002560092775474434</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.404381335102045</v>
+        <v>2.237897014942192</v>
       </c>
       <c r="J16">
-        <v>0.1033183447395416</v>
+        <v>0.1614276863162587</v>
       </c>
       <c r="K16">
-        <v>5.61654366908806</v>
+        <v>2.566347857950973</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.097870673298324</v>
+        <v>0.6419458282250474</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02861580810175646</v>
+        <v>0.05196247839066537</v>
       </c>
       <c r="D17">
-        <v>0.004215496626996718</v>
+        <v>0.02690113700135832</v>
       </c>
       <c r="E17">
-        <v>0.04019168201507206</v>
+        <v>0.08137565133420033</v>
       </c>
       <c r="F17">
-        <v>3.37839516515487</v>
+        <v>3.57133245864992</v>
       </c>
       <c r="G17">
-        <v>0.000793743495448921</v>
+        <v>0.002562296574689069</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.324270190074543</v>
+        <v>2.224851993975975</v>
       </c>
       <c r="J17">
-        <v>0.1011704665920874</v>
+        <v>0.1612914032472474</v>
       </c>
       <c r="K17">
-        <v>5.364602629250612</v>
+        <v>2.507329094362774</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.049955698431759</v>
+        <v>0.6313136307887035</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0288410954475431</v>
+        <v>0.0519816960112891</v>
       </c>
       <c r="D18">
-        <v>0.004104305914932382</v>
+        <v>0.0268750893993932</v>
       </c>
       <c r="E18">
-        <v>0.03969007421806303</v>
+        <v>0.08134825738567741</v>
       </c>
       <c r="F18">
-        <v>3.316317672698204</v>
+        <v>3.561924635937714</v>
       </c>
       <c r="G18">
-        <v>0.0007961015225935858</v>
+        <v>0.002563581259666611</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.278977546052147</v>
+        <v>2.217474390704311</v>
       </c>
       <c r="J18">
-        <v>0.09996206624299475</v>
+        <v>0.1612197046054575</v>
       </c>
       <c r="K18">
-        <v>5.220829710447447</v>
+        <v>2.473510457954774</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.02262213931791</v>
+        <v>0.6252314733566209</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02891723732107643</v>
+        <v>0.05198820388452852</v>
       </c>
       <c r="D19">
-        <v>0.004067039234378456</v>
+        <v>0.02686631224903735</v>
       </c>
       <c r="E19">
-        <v>0.03952140174416563</v>
+        <v>0.08133944581146402</v>
       </c>
       <c r="F19">
-        <v>3.295481156402133</v>
+        <v>3.558772052520339</v>
       </c>
       <c r="G19">
-        <v>0.0007969011048837293</v>
+        <v>0.002564019176419299</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.263771723024817</v>
+        <v>2.214997966738665</v>
       </c>
       <c r="J19">
-        <v>0.09955739998721924</v>
+        <v>0.161196575986871</v>
       </c>
       <c r="K19">
-        <v>5.172336535043257</v>
+        <v>2.462081896038683</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.01340447555912</v>
+        <v>0.6231778570035758</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0285740455823813</v>
+        <v>0.05195892211641784</v>
       </c>
       <c r="D20">
-        <v>0.00423626234620933</v>
+        <v>0.02690597779030313</v>
       </c>
       <c r="E20">
-        <v>0.04028507968459571</v>
+        <v>0.08138094146425168</v>
       </c>
       <c r="F20">
-        <v>3.389972426632113</v>
+        <v>3.573089206407445</v>
       </c>
       <c r="G20">
-        <v>0.0007933076204797148</v>
+        <v>0.002562060205958624</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.332715603888118</v>
+        <v>2.22622765140575</v>
       </c>
       <c r="J20">
-        <v>0.1013962786339704</v>
+        <v>0.1613052183383914</v>
       </c>
       <c r="K20">
-        <v>5.391302253202639</v>
+        <v>2.513598549668586</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.055032523359174</v>
+        <v>0.6324420090174456</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02741020685017403</v>
+        <v>0.05186058422938622</v>
       </c>
       <c r="D21">
-        <v>0.004835187265619822</v>
+        <v>0.02704215272945021</v>
       </c>
       <c r="E21">
-        <v>0.04293738927217916</v>
+        <v>0.08155257297020313</v>
       </c>
       <c r="F21">
-        <v>3.721195592786643</v>
+        <v>3.623481523807214</v>
       </c>
       <c r="G21">
-        <v>0.0007813015903213048</v>
+        <v>0.002555682518789406</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.574160008648491</v>
+        <v>2.26546212398037</v>
       </c>
       <c r="J21">
-        <v>0.1079098534751068</v>
+        <v>0.1617502445413947</v>
       </c>
       <c r="K21">
-        <v>6.141319194037294</v>
+        <v>2.688212052789254</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.197735713110688</v>
+        <v>0.6639653352409312</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02663998316395855</v>
+        <v>0.05179631015684372</v>
       </c>
       <c r="D22">
-        <v>0.005254374250817762</v>
+        <v>0.0271332864073166</v>
       </c>
       <c r="E22">
-        <v>0.04474232166565528</v>
+        <v>0.08168871218305007</v>
       </c>
       <c r="F22">
-        <v>3.949316512687034</v>
+        <v>3.658134391620877</v>
       </c>
       <c r="G22">
-        <v>0.00077348546436579</v>
+        <v>0.00255166574813978</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.740282185321064</v>
+        <v>2.292235006091545</v>
       </c>
       <c r="J22">
-        <v>0.1124470298787728</v>
+        <v>0.1621009480597593</v>
       </c>
       <c r="K22">
-        <v>6.643958919762667</v>
+        <v>2.80347423184412</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.293454555195737</v>
+        <v>0.6848644238282304</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02705204873397093</v>
+        <v>0.05183061726483906</v>
       </c>
       <c r="D23">
-        <v>0.005027743967682241</v>
+        <v>0.02708445303744433</v>
       </c>
       <c r="E23">
-        <v>0.04377196791268467</v>
+        <v>0.08161386154046113</v>
       </c>
       <c r="F23">
-        <v>3.826401472811568</v>
+        <v>3.639481426517904</v>
       </c>
       <c r="G23">
-        <v>0.0007776556555446322</v>
+        <v>0.002553795768800882</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.650787638940329</v>
+        <v>2.277841710767859</v>
       </c>
       <c r="J23">
-        <v>0.1099977240647902</v>
+        <v>0.1619082798025886</v>
       </c>
       <c r="K23">
-        <v>6.374427131800303</v>
+        <v>2.74185174276414</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.242119699208345</v>
+        <v>0.6736829754528486</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02859292870935626</v>
+        <v>0.05196052986404354</v>
       </c>
       <c r="D24">
-        <v>0.004226867021159819</v>
+        <v>0.02690378854569886</v>
       </c>
       <c r="E24">
-        <v>0.04024283363685122</v>
+        <v>0.08137854143603818</v>
       </c>
       <c r="F24">
-        <v>3.384735022972308</v>
+        <v>3.57229439927417</v>
       </c>
       <c r="G24">
-        <v>0.000793504656293496</v>
+        <v>0.002562167013077316</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.328895065632224</v>
+        <v>2.225605336344671</v>
       </c>
       <c r="J24">
-        <v>0.1012941070626923</v>
+        <v>0.1612989518183952</v>
       </c>
       <c r="K24">
-        <v>5.379228040778116</v>
+        <v>2.510763780037962</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.052736630777233</v>
+        <v>0.6319317744355075</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03022369439196915</v>
+        <v>0.05210089146773633</v>
       </c>
       <c r="D25">
-        <v>0.003451076922614149</v>
+        <v>0.02671827429437812</v>
       </c>
       <c r="E25">
-        <v>0.03669943496158545</v>
+        <v>0.0812278740522423</v>
       </c>
       <c r="F25">
-        <v>2.949686344954188</v>
+        <v>3.507117609963757</v>
       </c>
       <c r="G25">
-        <v>0.0008108539763625929</v>
+        <v>0.002571851837881312</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.011144135254398</v>
+        <v>2.174052096133934</v>
       </c>
       <c r="J25">
-        <v>0.09292147362494063</v>
+        <v>0.1608972007427241</v>
       </c>
       <c r="K25">
-        <v>4.34823768993698</v>
+        <v>2.266363610032215</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8569065333233112</v>
+        <v>0.5881649644643616</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05220474713279089</v>
+        <v>0.03140754680621782</v>
       </c>
       <c r="D2">
-        <v>0.02658993030757895</v>
+        <v>0.002928333304915931</v>
       </c>
       <c r="E2">
-        <v>0.08120587560143022</v>
+        <v>0.03427529969825471</v>
       </c>
       <c r="F2">
-        <v>3.465295741364642</v>
+        <v>2.656792879683849</v>
       </c>
       <c r="G2">
-        <v>0.002579552978083601</v>
+        <v>0.0008239637730649546</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.14013408902683</v>
+        <v>1.796616847781877</v>
       </c>
       <c r="J2">
-        <v>0.1608193225917098</v>
+        <v>0.08745340351732267</v>
       </c>
       <c r="K2">
-        <v>2.090512574869308</v>
+        <v>3.615256735286948</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5570167462983449</v>
+        <v>0.7180075535006907</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05227561025740712</v>
+        <v>0.03220385921708235</v>
       </c>
       <c r="D3">
-        <v>0.02650821429285344</v>
+        <v>0.002593845719592203</v>
       </c>
       <c r="E3">
-        <v>0.08124657572336424</v>
+        <v>0.03273027160760655</v>
       </c>
       <c r="F3">
-        <v>3.440747979239873</v>
+        <v>2.47201313607799</v>
       </c>
       <c r="G3">
-        <v>0.002585131270926665</v>
+        <v>0.0008331070981490996</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.119628399256584</v>
+        <v>1.660888433525528</v>
       </c>
       <c r="J3">
-        <v>0.1609016120906652</v>
+        <v>0.08410820366410832</v>
       </c>
       <c r="K3">
-        <v>1.973856505297704</v>
+        <v>3.130484888504043</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5365731575288208</v>
+        <v>0.626351168468517</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0523194122381625</v>
+        <v>0.03269122006173397</v>
       </c>
       <c r="D4">
-        <v>0.0264606825863325</v>
+        <v>0.002395460176243702</v>
       </c>
       <c r="E4">
-        <v>0.08129904871564797</v>
+        <v>0.03182486061433387</v>
       </c>
       <c r="F4">
-        <v>3.427531264312449</v>
+        <v>2.364351824355012</v>
       </c>
       <c r="G4">
-        <v>0.002588734646954183</v>
+        <v>0.0008388629509191213</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.108249041950685</v>
+        <v>1.581610102841893</v>
       </c>
       <c r="J4">
-        <v>0.1610184899416005</v>
+        <v>0.08221083351459413</v>
       </c>
       <c r="K4">
-        <v>1.903462215963629</v>
+        <v>2.837510195728044</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5243476364700683</v>
+        <v>0.5710610295210259</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05233734346509245</v>
+        <v>0.03288961852482331</v>
       </c>
       <c r="D5">
-        <v>0.02644198542099385</v>
+        <v>0.002316023637968456</v>
       </c>
       <c r="E5">
-        <v>0.08132735324904772</v>
+        <v>0.03146610203332756</v>
       </c>
       <c r="F5">
-        <v>3.422609825362201</v>
+        <v>2.321805487126824</v>
       </c>
       <c r="G5">
-        <v>0.002590248040220075</v>
+        <v>0.0008412460744411609</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.103914777847038</v>
+        <v>1.550229707035683</v>
       </c>
       <c r="J5">
-        <v>0.1610827683517009</v>
+        <v>0.08147415691587412</v>
       </c>
       <c r="K5">
-        <v>1.875085283132023</v>
+        <v>2.719133280188146</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5194477608475196</v>
+        <v>0.548746925035708</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05234032610205652</v>
+        <v>0.0329225554997663</v>
       </c>
       <c r="D6">
-        <v>0.02643892162484374</v>
+        <v>0.002302908929722847</v>
       </c>
       <c r="E6">
-        <v>0.08133247154443701</v>
+        <v>0.03140712822001923</v>
       </c>
       <c r="F6">
-        <v>3.421820614870725</v>
+        <v>2.314817213701616</v>
       </c>
       <c r="G6">
-        <v>0.002590502059580446</v>
+        <v>0.0008416441120557252</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.103213323780821</v>
+        <v>1.545072340323287</v>
       </c>
       <c r="J6">
-        <v>0.1610944463212221</v>
+        <v>0.08135395875297391</v>
       </c>
       <c r="K6">
-        <v>1.87039197637327</v>
+        <v>2.699533543947638</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5186390980655489</v>
+        <v>0.5450539368888911</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05231965372403913</v>
+        <v>0.03269389631570085</v>
       </c>
       <c r="D7">
-        <v>0.02646042769641799</v>
+        <v>0.002394383597205341</v>
       </c>
       <c r="E7">
-        <v>0.08129940240171685</v>
+        <v>0.03181998179985612</v>
       </c>
       <c r="F7">
-        <v>3.427463014284697</v>
+        <v>2.363772822913717</v>
       </c>
       <c r="G7">
-        <v>0.002588754875011711</v>
+        <v>0.0008388949360504281</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.108189364260227</v>
+        <v>1.581183265025814</v>
       </c>
       <c r="J7">
-        <v>0.1610192894545399</v>
+        <v>0.08220075418642026</v>
       </c>
       <c r="K7">
-        <v>1.903078263277109</v>
+        <v>2.835909828448166</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5242812226248788</v>
+        <v>0.5707592539608228</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05222912506803468</v>
+        <v>0.03168256126613223</v>
       </c>
       <c r="D8">
-        <v>0.02656121083919771</v>
+        <v>0.002811323541759947</v>
       </c>
       <c r="E8">
-        <v>0.08121421102755377</v>
+        <v>0.0337331768643292</v>
       </c>
       <c r="F8">
-        <v>3.456445205875227</v>
+        <v>2.591796056737849</v>
       </c>
       <c r="G8">
-        <v>0.00258143946600424</v>
+        <v>0.0008270881568015476</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.132811329935421</v>
+        <v>1.748915549220683</v>
       </c>
       <c r="J8">
-        <v>0.1608339032785544</v>
+        <v>0.08626567726493306</v>
       </c>
       <c r="K8">
-        <v>2.05003314877473</v>
+        <v>3.447033380646133</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5498998815928644</v>
+        <v>0.6861798397133043</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05205355261085742</v>
+        <v>0.02967762605810975</v>
       </c>
       <c r="D9">
-        <v>0.02677949806094126</v>
+        <v>0.003703278318833547</v>
       </c>
       <c r="E9">
-        <v>0.08126482694335202</v>
+        <v>0.03786177297470594</v>
       </c>
       <c r="F9">
-        <v>3.528107452267562</v>
+        <v>3.091476103701439</v>
       </c>
       <c r="G9">
-        <v>0.002568501362705266</v>
+        <v>0.0008049648843204771</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.190784928082209</v>
+        <v>2.114800734475168</v>
       </c>
       <c r="J9">
-        <v>0.1609985594205199</v>
+        <v>0.09562279476843827</v>
       </c>
       <c r="K9">
-        <v>2.348048070053778</v>
+        <v>4.69083564841884</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6027397118388365</v>
+        <v>0.921930084579337</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0519252645217172</v>
+        <v>0.02817766964000867</v>
       </c>
       <c r="D10">
-        <v>0.02695209691471057</v>
+        <v>0.00443579806915384</v>
       </c>
       <c r="E10">
-        <v>0.08143430363444359</v>
+        <v>0.0411778108448182</v>
       </c>
       <c r="F10">
-        <v>3.589951422636091</v>
+        <v>3.500928250895328</v>
       </c>
       <c r="G10">
-        <v>0.002559843622643387</v>
+        <v>0.0007891890830574969</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.239402598490031</v>
+        <v>2.413633183100984</v>
       </c>
       <c r="J10">
-        <v>0.1614441443910835</v>
+        <v>0.1035672174039206</v>
       </c>
       <c r="K10">
-        <v>2.573099597556222</v>
+        <v>5.645453337441609</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6431635384790013</v>
+        <v>1.103370112302237</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05186695587285506</v>
+        <v>0.02748614708714747</v>
       </c>
       <c r="D11">
-        <v>0.02703320373343132</v>
+        <v>0.004794874742422905</v>
       </c>
       <c r="E11">
-        <v>0.0815400537051918</v>
+        <v>0.04276151075426426</v>
       </c>
       <c r="F11">
-        <v>3.620116272679496</v>
+        <v>3.699084718887065</v>
       </c>
       <c r="G11">
-        <v>0.0025560869430552</v>
+        <v>0.0007820773507365431</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.262854074450303</v>
+        <v>2.558051926941545</v>
       </c>
       <c r="J11">
-        <v>0.1617179236654209</v>
+        <v>0.107472118323976</v>
       </c>
       <c r="K11">
-        <v>2.67683089521023</v>
+        <v>6.092032114878975</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6619053885797399</v>
+        <v>1.188353137993886</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05184487543716187</v>
+        <v>0.02722266472162183</v>
       </c>
       <c r="D12">
-        <v>0.02706428389912219</v>
+        <v>0.004935511446594987</v>
       </c>
       <c r="E12">
-        <v>0.08158421158216989</v>
+        <v>0.04337336063623987</v>
       </c>
       <c r="F12">
-        <v>3.631833689549296</v>
+        <v>3.776094732768939</v>
       </c>
       <c r="G12">
-        <v>0.002554690359273768</v>
+        <v>0.0007793898902191448</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.271928505133531</v>
+        <v>2.61414956908655</v>
       </c>
       <c r="J12">
-        <v>0.1618318629584294</v>
+        <v>0.1089983312947638</v>
       </c>
       <c r="K12">
-        <v>2.716307541507149</v>
+        <v>6.263246637421901</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6690534211801662</v>
+        <v>1.220949168762942</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05184963098033002</v>
+        <v>0.02727948733596186</v>
       </c>
       <c r="D13">
-        <v>0.0270575740043526</v>
+        <v>0.004904998414756889</v>
       </c>
       <c r="E13">
-        <v>0.08157451860467368</v>
+        <v>0.04324102502133798</v>
       </c>
       <c r="F13">
-        <v>3.629296990012904</v>
+        <v>3.759416940317948</v>
       </c>
       <c r="G13">
-        <v>0.002554989985108258</v>
+        <v>0.0007799684987366057</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.269965511654263</v>
+        <v>2.602001927528022</v>
       </c>
       <c r="J13">
-        <v>0.1618068668497514</v>
+        <v>0.108667421878188</v>
       </c>
       <c r="K13">
-        <v>2.707796810158982</v>
+        <v>6.226273077355756</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6675116979306637</v>
+        <v>1.213909476585044</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05186513934956949</v>
+        <v>0.02746450445519422</v>
       </c>
       <c r="D14">
-        <v>0.02703575339812758</v>
+        <v>0.004806345496898956</v>
       </c>
       <c r="E14">
-        <v>0.08154360422092921</v>
+        <v>0.04281159655117683</v>
       </c>
       <c r="F14">
-        <v>3.621074352216993</v>
+        <v>3.705379211438185</v>
       </c>
       <c r="G14">
-        <v>0.002555971525234766</v>
+        <v>0.0007818561627432661</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.263596737097288</v>
+        <v>2.562637678975122</v>
       </c>
       <c r="J14">
-        <v>0.1617270915403992</v>
+        <v>0.107596693197209</v>
       </c>
       <c r="K14">
-        <v>2.680074730784781</v>
+        <v>6.106073768418469</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6624924404260781</v>
+        <v>1.191026125039471</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.05187463842675299</v>
+        <v>0.02757761282451376</v>
       </c>
       <c r="D15">
-        <v>0.02702243524930914</v>
+        <v>0.004746556079762598</v>
       </c>
       <c r="E15">
-        <v>0.08152520362606985</v>
+        <v>0.04255018211551942</v>
       </c>
       <c r="F15">
-        <v>3.616076194500295</v>
+        <v>3.672544836836124</v>
       </c>
       <c r="G15">
-        <v>0.002556576127067705</v>
+        <v>0.000783013021403025</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.259720982119632</v>
+        <v>2.538715600436078</v>
       </c>
       <c r="J15">
-        <v>0.1616795649780656</v>
+        <v>0.1069472104916755</v>
       </c>
       <c r="K15">
-        <v>2.663119697176171</v>
+        <v>6.032733057818007</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.659424634068543</v>
+        <v>1.17706546257061</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.05192907550030235</v>
+        <v>0.02822265265428037</v>
       </c>
       <c r="D16">
-        <v>0.02694684802142255</v>
+        <v>0.004412928431586138</v>
       </c>
       <c r="E16">
-        <v>0.08142796853903533</v>
+        <v>0.04107593479209903</v>
       </c>
       <c r="F16">
-        <v>3.58802117388089</v>
+        <v>3.488239169853728</v>
       </c>
       <c r="G16">
-        <v>0.002560092775474434</v>
+        <v>0.0007896548487187168</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.237897014942192</v>
+        <v>2.40438133510203</v>
       </c>
       <c r="J16">
-        <v>0.1614276863162587</v>
+        <v>0.1033183447395842</v>
       </c>
       <c r="K16">
-        <v>2.566347857950973</v>
+        <v>5.61654366908806</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6419458282250474</v>
+        <v>1.097870673298296</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05196247839066537</v>
+        <v>0.02861580810151132</v>
       </c>
       <c r="D17">
-        <v>0.02690113700135832</v>
+        <v>0.004215496627230308</v>
       </c>
       <c r="E17">
-        <v>0.08137565133420033</v>
+        <v>0.04019168201507561</v>
       </c>
       <c r="F17">
-        <v>3.57133245864992</v>
+        <v>3.37839516515487</v>
       </c>
       <c r="G17">
-        <v>0.002562296574689069</v>
+        <v>0.0007937434955067278</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.224851993975975</v>
+        <v>2.324270190074543</v>
       </c>
       <c r="J17">
-        <v>0.1612914032472474</v>
+        <v>0.1011704665922366</v>
       </c>
       <c r="K17">
-        <v>2.507329094362774</v>
+        <v>5.364602629250555</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6313136307887035</v>
+        <v>1.049955698431759</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0519816960112891</v>
+        <v>0.02884109544725355</v>
       </c>
       <c r="D18">
-        <v>0.0268750893993932</v>
+        <v>0.004104305914901296</v>
       </c>
       <c r="E18">
-        <v>0.08134825738567741</v>
+        <v>0.03969007421809323</v>
       </c>
       <c r="F18">
-        <v>3.561924635937714</v>
+        <v>3.316317672698204</v>
       </c>
       <c r="G18">
-        <v>0.002563581259666611</v>
+        <v>0.0007961015225328502</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.217474390704311</v>
+        <v>2.278977546052147</v>
       </c>
       <c r="J18">
-        <v>0.1612197046054575</v>
+        <v>0.09996206624281712</v>
       </c>
       <c r="K18">
-        <v>2.473510457954774</v>
+        <v>5.22082971044739</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6252314733566209</v>
+        <v>1.02262213931791</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05198820388452852</v>
+        <v>0.02891723732155782</v>
       </c>
       <c r="D19">
-        <v>0.02686631224903735</v>
+        <v>0.004067039234405101</v>
       </c>
       <c r="E19">
-        <v>0.08133944581146402</v>
+        <v>0.03952140174417273</v>
       </c>
       <c r="F19">
-        <v>3.558772052520339</v>
+        <v>3.295481156402076</v>
       </c>
       <c r="G19">
-        <v>0.002564019176419299</v>
+        <v>0.0007969011048225561</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.214997966738665</v>
+        <v>2.263771723024817</v>
       </c>
       <c r="J19">
-        <v>0.161196575986871</v>
+        <v>0.09955739998711977</v>
       </c>
       <c r="K19">
-        <v>2.462081896038683</v>
+        <v>5.172336535043314</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6231778570035758</v>
+        <v>1.013404475559113</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.05195892211641784</v>
+        <v>0.02857404558238663</v>
       </c>
       <c r="D20">
-        <v>0.02690597779030313</v>
+        <v>0.004236262346211994</v>
       </c>
       <c r="E20">
-        <v>0.08138094146425168</v>
+        <v>0.04028507968456196</v>
       </c>
       <c r="F20">
-        <v>3.573089206407445</v>
+        <v>3.389972426632085</v>
       </c>
       <c r="G20">
-        <v>0.002562060205958624</v>
+        <v>0.0007933076206089085</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.22622765140575</v>
+        <v>2.332715603888118</v>
       </c>
       <c r="J20">
-        <v>0.1613052183383914</v>
+        <v>0.1013962786340343</v>
       </c>
       <c r="K20">
-        <v>2.513598549668586</v>
+        <v>5.391302253202639</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6324420090174456</v>
+        <v>1.055032523359188</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05186058422938622</v>
+        <v>0.02741020685046003</v>
       </c>
       <c r="D21">
-        <v>0.02704215272945021</v>
+        <v>0.004835187266017726</v>
       </c>
       <c r="E21">
-        <v>0.08155257297020313</v>
+        <v>0.04293738927220048</v>
       </c>
       <c r="F21">
-        <v>3.623481523807214</v>
+        <v>3.721195592786643</v>
       </c>
       <c r="G21">
-        <v>0.002555682518789406</v>
+        <v>0.000781301590269571</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.26546212398037</v>
+        <v>2.574160008648477</v>
       </c>
       <c r="J21">
-        <v>0.1617502445413947</v>
+        <v>0.1079098534749505</v>
       </c>
       <c r="K21">
-        <v>2.688212052789254</v>
+        <v>6.141319194037351</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6639653352409312</v>
+        <v>1.197735713110688</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05179631015684372</v>
+        <v>0.0266399831641575</v>
       </c>
       <c r="D22">
-        <v>0.0271332864073166</v>
+        <v>0.005254374250784011</v>
       </c>
       <c r="E22">
-        <v>0.08168871218305007</v>
+        <v>0.04474232166574765</v>
       </c>
       <c r="F22">
-        <v>3.658134391620877</v>
+        <v>3.949316512687062</v>
       </c>
       <c r="G22">
-        <v>0.00255166574813978</v>
+        <v>0.000773485464164506</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.292235006091545</v>
+        <v>2.740282185321064</v>
       </c>
       <c r="J22">
-        <v>0.1621009480597593</v>
+        <v>0.1124470298788296</v>
       </c>
       <c r="K22">
-        <v>2.80347423184412</v>
+        <v>6.643958919762667</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6848644238282304</v>
+        <v>1.293454555195751</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05183061726483906</v>
+        <v>0.02705204873395672</v>
       </c>
       <c r="D23">
-        <v>0.02708445303744433</v>
+        <v>0.005027743967657372</v>
       </c>
       <c r="E23">
-        <v>0.08161386154046113</v>
+        <v>0.04377196791266869</v>
       </c>
       <c r="F23">
-        <v>3.639481426517904</v>
+        <v>3.826401472811568</v>
       </c>
       <c r="G23">
-        <v>0.002553795768800882</v>
+        <v>0.0007776556555406878</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.277841710767859</v>
+        <v>2.650787638940358</v>
       </c>
       <c r="J23">
-        <v>0.1619082798025886</v>
+        <v>0.1099977240648116</v>
       </c>
       <c r="K23">
-        <v>2.74185174276414</v>
+        <v>6.374427131800303</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6736829754528486</v>
+        <v>1.242119699208345</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05196052986404354</v>
+        <v>0.0285929287093456</v>
       </c>
       <c r="D24">
-        <v>0.02690378854569886</v>
+        <v>0.004226867021517755</v>
       </c>
       <c r="E24">
-        <v>0.08137854143603818</v>
+        <v>0.04024283363684411</v>
       </c>
       <c r="F24">
-        <v>3.57229439927417</v>
+        <v>3.384735022972336</v>
       </c>
       <c r="G24">
-        <v>0.002562167013077316</v>
+        <v>0.0007935046561692412</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.225605336344671</v>
+        <v>2.328895065632224</v>
       </c>
       <c r="J24">
-        <v>0.1612989518183952</v>
+        <v>0.1012941070628415</v>
       </c>
       <c r="K24">
-        <v>2.510763780037962</v>
+        <v>5.379228040778116</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6319317744355075</v>
+        <v>1.05273663077724</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05210089146773633</v>
+        <v>0.03022369439244166</v>
       </c>
       <c r="D25">
-        <v>0.02671827429437812</v>
+        <v>0.003451076922500462</v>
       </c>
       <c r="E25">
-        <v>0.0812278740522423</v>
+        <v>0.03669943496158901</v>
       </c>
       <c r="F25">
-        <v>3.507117609963757</v>
+        <v>2.949686344954159</v>
       </c>
       <c r="G25">
-        <v>0.002571851837881312</v>
+        <v>0.000810853976362877</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.174052096133934</v>
+        <v>2.011144135254384</v>
       </c>
       <c r="J25">
-        <v>0.1608972007427241</v>
+        <v>0.09292147362507563</v>
       </c>
       <c r="K25">
-        <v>2.266363610032215</v>
+        <v>4.34823768993698</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5881649644643616</v>
+        <v>0.8569065333232899</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,37 +430,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03140754680621782</v>
+        <v>0.03436146247398852</v>
       </c>
       <c r="D2">
-        <v>0.002928333304915931</v>
+        <v>0.1801782829693224</v>
       </c>
       <c r="E2">
-        <v>0.03427529969825471</v>
+        <v>0.180534951198311</v>
       </c>
       <c r="F2">
-        <v>2.656792879683849</v>
+        <v>1.071696393484743</v>
       </c>
       <c r="G2">
-        <v>0.0008239637730649546</v>
+        <v>0.7067306328842307</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0001688891181805818</v>
       </c>
       <c r="I2">
-        <v>1.796616847781877</v>
+        <v>0.001203740959727195</v>
       </c>
       <c r="J2">
-        <v>0.08745340351732267</v>
+        <v>0.508919449746017</v>
       </c>
       <c r="K2">
-        <v>3.615256735286948</v>
+        <v>0.6159168263033905</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2239265167554123</v>
       </c>
       <c r="M2">
-        <v>0.7180075535006907</v>
+        <v>5.101629023552903</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,8 +468,14 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,37 +483,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03220385921708235</v>
+        <v>0.02952343154863968</v>
       </c>
       <c r="D3">
-        <v>0.002593845719592203</v>
+        <v>0.1583584901506896</v>
       </c>
       <c r="E3">
-        <v>0.03273027160760655</v>
+        <v>0.1590111233942295</v>
       </c>
       <c r="F3">
-        <v>2.47201313607799</v>
+        <v>1.009722709210067</v>
       </c>
       <c r="G3">
-        <v>0.0008331070981490996</v>
+        <v>0.6689455904141397</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0009752267436549111</v>
       </c>
       <c r="I3">
-        <v>1.660888433525528</v>
+        <v>0.0004771367250846481</v>
       </c>
       <c r="J3">
-        <v>0.08410820366410832</v>
+        <v>0.4976895483155346</v>
       </c>
       <c r="K3">
-        <v>3.130484888504043</v>
+        <v>0.582717117181744</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1975556888017778</v>
       </c>
       <c r="M3">
-        <v>0.626351168468517</v>
+        <v>4.441272375092979</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,8 +521,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,37 +536,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03269122006173397</v>
+        <v>0.02655020045146017</v>
       </c>
       <c r="D4">
-        <v>0.002395460176243702</v>
+        <v>0.1450564739991762</v>
       </c>
       <c r="E4">
-        <v>0.03182486061433387</v>
+        <v>0.1458459407723787</v>
       </c>
       <c r="F4">
-        <v>2.364351824355012</v>
+        <v>0.9724948418332815</v>
       </c>
       <c r="G4">
-        <v>0.0008388629509191213</v>
+        <v>0.6465370020517582</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001831454047400927</v>
       </c>
       <c r="I4">
-        <v>1.581610102841893</v>
+        <v>0.0004483238786132659</v>
       </c>
       <c r="J4">
-        <v>0.08221083351459413</v>
+        <v>0.4912816844290404</v>
       </c>
       <c r="K4">
-        <v>2.837510195728044</v>
+        <v>0.5626774172641689</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1813891301306896</v>
       </c>
       <c r="M4">
-        <v>0.5710610295210259</v>
+        <v>4.035893969101039</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,8 +574,14 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,37 +589,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03288961852482331</v>
+        <v>0.02510780996404804</v>
       </c>
       <c r="D5">
-        <v>0.002316023637968456</v>
+        <v>0.1398605122801229</v>
       </c>
       <c r="E5">
-        <v>0.03146610203332756</v>
+        <v>0.1405424477319777</v>
       </c>
       <c r="F5">
-        <v>2.321805487126824</v>
+        <v>0.9562282402232327</v>
       </c>
       <c r="G5">
-        <v>0.0008412460744411609</v>
+        <v>0.6363805947361953</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.002268593687550169</v>
       </c>
       <c r="I5">
-        <v>1.550229707035683</v>
+        <v>0.0006023321211428012</v>
       </c>
       <c r="J5">
-        <v>0.08147415691587412</v>
+        <v>0.4881651493177657</v>
       </c>
       <c r="K5">
-        <v>2.719133280188146</v>
+        <v>0.5534591579223118</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1747555966865662</v>
       </c>
       <c r="M5">
-        <v>0.548746925035708</v>
+        <v>3.870641789405681</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,8 +627,14 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,37 +642,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0329225554997663</v>
+        <v>0.02458987432225257</v>
       </c>
       <c r="D6">
-        <v>0.002302908929722847</v>
+        <v>0.1392483522833459</v>
       </c>
       <c r="E6">
-        <v>0.03140712822001923</v>
+        <v>0.139725740153434</v>
       </c>
       <c r="F6">
-        <v>2.314817213701616</v>
+        <v>0.9519674221596688</v>
       </c>
       <c r="G6">
-        <v>0.0008416441120557252</v>
+        <v>0.6332308567525331</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002349248138014293</v>
       </c>
       <c r="I6">
-        <v>1.545072340323287</v>
+        <v>0.0007233501237751128</v>
       </c>
       <c r="J6">
-        <v>0.08135395875297391</v>
+        <v>0.4868969515140975</v>
       </c>
       <c r="K6">
-        <v>2.699533543947638</v>
+        <v>0.550553626902456</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1735954914287277</v>
       </c>
       <c r="M6">
-        <v>0.5450539368888911</v>
+        <v>3.843161254863446</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,8 +680,14 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,37 +695,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03269389631570085</v>
+        <v>0.02576425915647462</v>
       </c>
       <c r="D7">
-        <v>0.002394383597205341</v>
+        <v>0.1456687932921312</v>
       </c>
       <c r="E7">
-        <v>0.03181998179985612</v>
+        <v>0.1459480252523804</v>
       </c>
       <c r="F7">
-        <v>2.363772822913717</v>
+        <v>0.9679808966640735</v>
       </c>
       <c r="G7">
-        <v>0.0008388949360504281</v>
+        <v>0.6423691737254131</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001844123705186496</v>
       </c>
       <c r="I7">
-        <v>1.581183265025814</v>
+        <v>0.0006766941909921442</v>
       </c>
       <c r="J7">
-        <v>0.08220075418642026</v>
+        <v>0.4891705420328094</v>
       </c>
       <c r="K7">
-        <v>2.835909828448166</v>
+        <v>0.5587785521286435</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1811389032248485</v>
       </c>
       <c r="M7">
-        <v>0.5707592539608228</v>
+        <v>4.03355703860376</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,8 +733,14 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,37 +748,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03168256126613223</v>
+        <v>0.03165936475215148</v>
       </c>
       <c r="D8">
-        <v>0.002811323541759947</v>
+        <v>0.1735433849639918</v>
       </c>
       <c r="E8">
-        <v>0.0337331768643292</v>
+        <v>0.1733327177621788</v>
       </c>
       <c r="F8">
-        <v>2.591796056737849</v>
+        <v>1.044452252701703</v>
       </c>
       <c r="G8">
-        <v>0.0008270881568015476</v>
+        <v>0.688182265058515</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0003729525164137826</v>
       </c>
       <c r="I8">
-        <v>1.748915549220683</v>
+        <v>0.00112025649830727</v>
       </c>
       <c r="J8">
-        <v>0.08626567726493306</v>
+        <v>0.5022079295045643</v>
       </c>
       <c r="K8">
-        <v>3.447033380646133</v>
+        <v>0.5993774762011697</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2146107344245678</v>
       </c>
       <c r="M8">
-        <v>0.6861798397133043</v>
+        <v>4.873720705330811</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,8 +786,14 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,37 +801,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02967762605810975</v>
+        <v>0.04467948605845606</v>
       </c>
       <c r="D9">
-        <v>0.003703278318833547</v>
+        <v>0.2278644866538855</v>
       </c>
       <c r="E9">
-        <v>0.03786177297470594</v>
+        <v>0.2272690721320103</v>
       </c>
       <c r="F9">
-        <v>3.091476103701439</v>
+        <v>1.209536551314883</v>
       </c>
       <c r="G9">
-        <v>0.0008049648843204771</v>
+        <v>0.7923763548589022</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0005911522944161973</v>
       </c>
       <c r="I9">
-        <v>2.114800734475168</v>
+        <v>0.005297908310237354</v>
       </c>
       <c r="J9">
-        <v>0.09562279476843827</v>
+        <v>0.5357147017797246</v>
       </c>
       <c r="K9">
-        <v>4.69083564841884</v>
+        <v>0.6889801241062088</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2809312592797539</v>
       </c>
       <c r="M9">
-        <v>0.921930084579337</v>
+        <v>6.524580320353039</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,8 +839,14 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,37 +854,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02817766964000867</v>
+        <v>0.05501958615870706</v>
       </c>
       <c r="D10">
-        <v>0.00443579806915384</v>
+        <v>0.2638259163633592</v>
       </c>
       <c r="E10">
-        <v>0.0411778108448182</v>
+        <v>0.2577696242527878</v>
       </c>
       <c r="F10">
-        <v>3.500928250895328</v>
+        <v>1.307533879441209</v>
       </c>
       <c r="G10">
-        <v>0.0007891890830574969</v>
+        <v>0.8533632135243749</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.003011450287452977</v>
       </c>
       <c r="I10">
-        <v>2.413633183100984</v>
+        <v>0.01101152221275914</v>
       </c>
       <c r="J10">
-        <v>0.1035672174039206</v>
+        <v>0.5528162103950649</v>
       </c>
       <c r="K10">
-        <v>5.645453337441609</v>
+        <v>0.7420151326338384</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.31467461212101</v>
       </c>
       <c r="M10">
-        <v>1.103370112302237</v>
+        <v>7.741795252443012</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,8 +892,14 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,37 +907,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02748614708714747</v>
+        <v>0.0679528719475968</v>
       </c>
       <c r="D11">
-        <v>0.004794874742422905</v>
+        <v>0.2387349823183911</v>
       </c>
       <c r="E11">
-        <v>0.04276151075426426</v>
+        <v>0.1939504479084704</v>
       </c>
       <c r="F11">
-        <v>3.699084718887065</v>
+        <v>1.121806292504814</v>
       </c>
       <c r="G11">
-        <v>0.0007820773507365431</v>
+        <v>0.7174147923238792</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02167645170189303</v>
       </c>
       <c r="I11">
-        <v>2.558051926941545</v>
+        <v>0.01345013361452896</v>
       </c>
       <c r="J11">
-        <v>0.107472118323976</v>
+        <v>0.4779619311103573</v>
       </c>
       <c r="K11">
-        <v>6.092032114878975</v>
+        <v>0.647472424544091</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2114544714416056</v>
       </c>
       <c r="M11">
-        <v>1.188353137993886</v>
+        <v>8.287040158015145</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,8 +945,14 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,37 +960,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02722266472162183</v>
+        <v>0.07901420372174073</v>
       </c>
       <c r="D12">
-        <v>0.004935511446594987</v>
+        <v>0.2102747606114264</v>
       </c>
       <c r="E12">
-        <v>0.04337336063623987</v>
+        <v>0.1425116236092059</v>
       </c>
       <c r="F12">
-        <v>3.776094732768939</v>
+        <v>0.9619191361158386</v>
       </c>
       <c r="G12">
-        <v>0.0007793898902191448</v>
+        <v>0.6045028124082137</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06006576876908554</v>
       </c>
       <c r="I12">
-        <v>2.61414956908655</v>
+        <v>0.01384648566989455</v>
       </c>
       <c r="J12">
-        <v>0.1089983312947638</v>
+        <v>0.4182577600900999</v>
       </c>
       <c r="K12">
-        <v>6.263246637421901</v>
+        <v>0.5669792226509429</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1383535073751787</v>
       </c>
       <c r="M12">
-        <v>1.220949168762942</v>
+        <v>8.489904071494607</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,8 +998,14 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,37 +1013,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02727948733596186</v>
+        <v>0.08785307603052672</v>
       </c>
       <c r="D13">
-        <v>0.004904998414756889</v>
+        <v>0.1788530151688548</v>
       </c>
       <c r="E13">
-        <v>0.04324102502133798</v>
+        <v>0.09818823205709037</v>
       </c>
       <c r="F13">
-        <v>3.759416940317948</v>
+        <v>0.8062505794359254</v>
       </c>
       <c r="G13">
-        <v>0.0007799684987366057</v>
+        <v>0.4963994193334003</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1152135188769279</v>
       </c>
       <c r="I13">
-        <v>2.602001927528022</v>
+        <v>0.01289021542444235</v>
       </c>
       <c r="J13">
-        <v>0.108667421878188</v>
+        <v>0.3634196812555075</v>
       </c>
       <c r="K13">
-        <v>6.226273077355756</v>
+        <v>0.4867378847393837</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0842521790919335</v>
       </c>
       <c r="M13">
-        <v>1.213909476585044</v>
+        <v>8.438457173716245</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,8 +1051,14 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,37 +1066,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02746450445519422</v>
+        <v>0.0927716619583947</v>
       </c>
       <c r="D14">
-        <v>0.004806345496898956</v>
+        <v>0.1561058499543293</v>
       </c>
       <c r="E14">
-        <v>0.04281159655117683</v>
+        <v>0.07192947654458592</v>
       </c>
       <c r="F14">
-        <v>3.705379211438185</v>
+        <v>0.7007413294708655</v>
       </c>
       <c r="G14">
-        <v>0.0007818561627432661</v>
+        <v>0.423850572178111</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1640562179926945</v>
       </c>
       <c r="I14">
-        <v>2.562637678975122</v>
+        <v>0.0117341915391842</v>
       </c>
       <c r="J14">
-        <v>0.107596693197209</v>
+        <v>0.3276204221290726</v>
       </c>
       <c r="K14">
-        <v>6.106073768418469</v>
+        <v>0.4309331671072982</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.05806115572009318</v>
       </c>
       <c r="M14">
-        <v>1.191026125039471</v>
+        <v>8.287349996206842</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,8 +1104,14 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,37 +1119,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02757761282451376</v>
+        <v>0.09289851659227111</v>
       </c>
       <c r="D15">
-        <v>0.004746556079762598</v>
+        <v>0.1500130430221134</v>
       </c>
       <c r="E15">
-        <v>0.04255018211551942</v>
+        <v>0.06596277731373235</v>
       </c>
       <c r="F15">
-        <v>3.672544836836124</v>
+        <v>0.6736236920307377</v>
       </c>
       <c r="G15">
-        <v>0.000783013021403025</v>
+        <v>0.4052130932648623</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1763575451124098</v>
       </c>
       <c r="I15">
-        <v>2.538715600436078</v>
+        <v>0.01127492961517973</v>
       </c>
       <c r="J15">
-        <v>0.1069472104916755</v>
+        <v>0.3189542662205298</v>
       </c>
       <c r="K15">
-        <v>6.032733057818007</v>
+        <v>0.4158585853790484</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05306830408012608</v>
       </c>
       <c r="M15">
-        <v>1.17706546257061</v>
+        <v>8.196283294389048</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,8 +1157,14 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,37 +1172,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02822265265428037</v>
+        <v>0.08559918875229755</v>
       </c>
       <c r="D16">
-        <v>0.004412928431586138</v>
+        <v>0.1422048126144375</v>
       </c>
       <c r="E16">
-        <v>0.04107593479209903</v>
+        <v>0.063478006083173</v>
       </c>
       <c r="F16">
-        <v>3.488239169853728</v>
+        <v>0.6635457736715438</v>
       </c>
       <c r="G16">
-        <v>0.0007896548487187168</v>
+        <v>0.4000356984477094</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1627301860828112</v>
       </c>
       <c r="I16">
-        <v>2.40438133510203</v>
+        <v>0.008900895007536214</v>
       </c>
       <c r="J16">
-        <v>0.1033183447395842</v>
+        <v>0.3219452929584605</v>
       </c>
       <c r="K16">
-        <v>5.61654366908806</v>
+        <v>0.4084648954349106</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.05161597867031986</v>
       </c>
       <c r="M16">
-        <v>1.097870673298296</v>
+        <v>7.680352020168243</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,8 +1210,14 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,37 +1225,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02861580810151132</v>
+        <v>0.07740785614089418</v>
       </c>
       <c r="D17">
-        <v>0.004215496627230308</v>
+        <v>0.1480454291095583</v>
       </c>
       <c r="E17">
-        <v>0.04019168201507561</v>
+        <v>0.07443626386099922</v>
       </c>
       <c r="F17">
-        <v>3.37839516515487</v>
+        <v>0.710251360801287</v>
       </c>
       <c r="G17">
-        <v>0.0007937434955067278</v>
+        <v>0.4334937011448119</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1245630821245385</v>
       </c>
       <c r="I17">
-        <v>2.324270190074543</v>
+        <v>0.007773273180889717</v>
       </c>
       <c r="J17">
-        <v>0.1011704665922366</v>
+        <v>0.3427968773064549</v>
       </c>
       <c r="K17">
-        <v>5.364602629250555</v>
+        <v>0.4316711171769327</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06216769345160955</v>
       </c>
       <c r="M17">
-        <v>1.049955698431759</v>
+        <v>7.366076962691409</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,8 +1263,14 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,37 +1278,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02884109544725355</v>
+        <v>0.06875453988622837</v>
       </c>
       <c r="D18">
-        <v>0.004104305914901296</v>
+        <v>0.1666537484973531</v>
       </c>
       <c r="E18">
-        <v>0.03969007421809323</v>
+        <v>0.1027626464971085</v>
       </c>
       <c r="F18">
-        <v>3.316317672698204</v>
+        <v>0.8196555560446512</v>
       </c>
       <c r="G18">
-        <v>0.0007961015225328502</v>
+        <v>0.5108641567684487</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07168915721722158</v>
       </c>
       <c r="I18">
-        <v>2.278977546052147</v>
+        <v>0.007202374659376787</v>
       </c>
       <c r="J18">
-        <v>0.09996206624281712</v>
+        <v>0.3847125226310766</v>
       </c>
       <c r="K18">
-        <v>5.22082971044739</v>
+        <v>0.488778838054337</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09465423009539009</v>
       </c>
       <c r="M18">
-        <v>1.02262213931791</v>
+        <v>7.188324456111388</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,8 +1316,14 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,37 +1331,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02891723732155782</v>
+        <v>0.05905886407059313</v>
       </c>
       <c r="D19">
-        <v>0.004067039234405101</v>
+        <v>0.1967240814872326</v>
       </c>
       <c r="E19">
-        <v>0.03952140174417273</v>
+        <v>0.1504107877751757</v>
       </c>
       <c r="F19">
-        <v>3.295481156402076</v>
+        <v>0.9753824800811373</v>
       </c>
       <c r="G19">
-        <v>0.0007969011048225561</v>
+        <v>0.6198210660579946</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02674046366379912</v>
       </c>
       <c r="I19">
-        <v>2.263771723024817</v>
+        <v>0.00757237672153277</v>
       </c>
       <c r="J19">
-        <v>0.09955739998711977</v>
+        <v>0.4411425104947142</v>
       </c>
       <c r="K19">
-        <v>5.172336535043314</v>
+        <v>0.5677505272552281</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1580622226129833</v>
       </c>
       <c r="M19">
-        <v>1.013404475559113</v>
+        <v>7.132481042994584</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,8 +1369,14 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,37 +1384,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02857404558238663</v>
+        <v>0.04982250939397659</v>
       </c>
       <c r="D20">
-        <v>0.004236262346211994</v>
+        <v>0.2562997774816012</v>
       </c>
       <c r="E20">
-        <v>0.04028507968456196</v>
+        <v>0.2498650072807465</v>
       </c>
       <c r="F20">
-        <v>3.389972426632085</v>
+        <v>1.266887698538326</v>
       </c>
       <c r="G20">
-        <v>0.0007933076206089085</v>
+        <v>0.823604476552191</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002175835730131581</v>
       </c>
       <c r="I20">
-        <v>2.332715603888118</v>
+        <v>0.009915081520841085</v>
       </c>
       <c r="J20">
-        <v>0.1013962786340343</v>
+        <v>0.5413245044185828</v>
       </c>
       <c r="K20">
-        <v>5.391302253202639</v>
+        <v>0.7155250272427551</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.304620715514119</v>
       </c>
       <c r="M20">
-        <v>1.055032523359188</v>
+        <v>7.421049843682795</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,8 +1422,14 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,37 +1437,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02741020685046003</v>
+        <v>0.05679371137892986</v>
       </c>
       <c r="D21">
-        <v>0.004835187266017726</v>
+        <v>0.2915355492516056</v>
       </c>
       <c r="E21">
-        <v>0.04293738927220048</v>
+        <v>0.288499009646948</v>
       </c>
       <c r="F21">
-        <v>3.721195592786643</v>
+        <v>1.388826552136962</v>
       </c>
       <c r="G21">
-        <v>0.000781301590269571</v>
+        <v>0.9047699581684441</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.004836062007312014</v>
       </c>
       <c r="I21">
-        <v>2.574160008648477</v>
+        <v>0.01531856948268207</v>
       </c>
       <c r="J21">
-        <v>0.1079098534749505</v>
+        <v>0.5718831632501065</v>
       </c>
       <c r="K21">
-        <v>6.141319194037351</v>
+        <v>0.7806589549455936</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3546915208888493</v>
       </c>
       <c r="M21">
-        <v>1.197735713110688</v>
+        <v>8.359766574493392</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,8 +1475,14 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,37 +1490,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0266399831641575</v>
+        <v>0.06296607658092057</v>
       </c>
       <c r="D22">
-        <v>0.005254374250784011</v>
+        <v>0.3112817063128688</v>
       </c>
       <c r="E22">
-        <v>0.04474232166574765</v>
+        <v>0.3087206107439471</v>
       </c>
       <c r="F22">
-        <v>3.949316512687062</v>
+        <v>1.461972343753743</v>
       </c>
       <c r="G22">
-        <v>0.000773485464164506</v>
+        <v>0.9548326967042584</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.007118687211294161</v>
       </c>
       <c r="I22">
-        <v>2.740282185321064</v>
+        <v>0.01920943601974123</v>
       </c>
       <c r="J22">
-        <v>0.1124470298788296</v>
+        <v>0.5903972315363717</v>
       </c>
       <c r="K22">
-        <v>6.643958919762667</v>
+        <v>0.8220529799039511</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3799916484822461</v>
       </c>
       <c r="M22">
-        <v>1.293454555195751</v>
+        <v>8.97528990737203</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,8 +1528,14 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,37 +1543,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02705204873395672</v>
+        <v>0.06061091082447234</v>
       </c>
       <c r="D23">
-        <v>0.005027743967657372</v>
+        <v>0.2998890513622428</v>
       </c>
       <c r="E23">
-        <v>0.04377196791266869</v>
+        <v>0.2976998487811784</v>
       </c>
       <c r="F23">
-        <v>3.826401472811568</v>
+        <v>1.427886676673651</v>
       </c>
       <c r="G23">
-        <v>0.0007776556555406878</v>
+        <v>0.9327530641984083</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.005861869194328517</v>
       </c>
       <c r="I23">
-        <v>2.650787638940358</v>
+        <v>0.01684988596366388</v>
       </c>
       <c r="J23">
-        <v>0.1099977240648116</v>
+        <v>0.5828639444755623</v>
       </c>
       <c r="K23">
-        <v>6.374427131800303</v>
+        <v>0.8043938131070618</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3666710447933781</v>
       </c>
       <c r="M23">
-        <v>1.242119699208345</v>
+        <v>8.646780851536903</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,8 +1581,14 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,37 +1596,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0285929287093456</v>
+        <v>0.05035916367297233</v>
       </c>
       <c r="D24">
-        <v>0.004226867021517755</v>
+        <v>0.2584494154733221</v>
       </c>
       <c r="E24">
-        <v>0.04024283363684411</v>
+        <v>0.2566452153211074</v>
       </c>
       <c r="F24">
-        <v>3.384735022972336</v>
+        <v>1.293972040574161</v>
       </c>
       <c r="G24">
-        <v>0.0007935046561692412</v>
+        <v>0.8446719698673206</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002149919153461299</v>
       </c>
       <c r="I24">
-        <v>2.328895065632224</v>
+        <v>0.009540789988044196</v>
       </c>
       <c r="J24">
-        <v>0.1012941070628415</v>
+        <v>0.5521460872804766</v>
       </c>
       <c r="K24">
-        <v>5.379228040778116</v>
+        <v>0.7319984620045119</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3162963927167937</v>
       </c>
       <c r="M24">
-        <v>1.05273663077724</v>
+        <v>7.406973261282587</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,8 +1634,14 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03022369439244166</v>
+        <v>0.03971196707879443</v>
       </c>
       <c r="D25">
-        <v>0.003451076922500462</v>
+        <v>0.2143117026968895</v>
       </c>
       <c r="E25">
-        <v>0.03669943496158901</v>
+        <v>0.2129165952430014</v>
       </c>
       <c r="F25">
-        <v>2.949686344954159</v>
+        <v>1.15616221112613</v>
       </c>
       <c r="G25">
-        <v>0.000810853976362877</v>
+        <v>0.7559945436039897</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0001604388983786897</v>
       </c>
       <c r="I25">
-        <v>2.011144135254384</v>
+        <v>0.004080458026045619</v>
       </c>
       <c r="J25">
-        <v>0.09292147362507563</v>
+        <v>0.52241768543918</v>
       </c>
       <c r="K25">
-        <v>4.34823768993698</v>
+        <v>0.6574613958813558</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2626201445736172</v>
       </c>
       <c r="M25">
-        <v>0.8569065333232899</v>
+        <v>6.076998891510414</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,43 +436,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03436146247398852</v>
+        <v>0.01209067556342092</v>
       </c>
       <c r="D2">
-        <v>0.1801782829693224</v>
+        <v>0.2064524394302651</v>
       </c>
       <c r="E2">
-        <v>0.180534951198311</v>
+        <v>0.1880114417940959</v>
       </c>
       <c r="F2">
-        <v>1.071696393484743</v>
+        <v>0.920267119847864</v>
       </c>
       <c r="G2">
-        <v>0.7067306328842307</v>
+        <v>0.5490025951491759</v>
       </c>
       <c r="H2">
-        <v>0.0001688891181805818</v>
+        <v>0.0001534225571904191</v>
       </c>
       <c r="I2">
-        <v>0.001203740959727195</v>
+        <v>0.001563686353241778</v>
       </c>
       <c r="J2">
-        <v>0.508919449746017</v>
+        <v>0.4649674775119053</v>
       </c>
       <c r="K2">
-        <v>0.6159168263033905</v>
+        <v>0.48048484161734</v>
       </c>
       <c r="L2">
-        <v>0.2239265167554123</v>
+        <v>0.2378966308763637</v>
       </c>
       <c r="M2">
-        <v>5.101629023552903</v>
+        <v>0.1345489482266267</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2196531081901369</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>5.103011167712111</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,8 +480,14 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,43 +495,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02952343154863968</v>
+        <v>0.01147264700220063</v>
       </c>
       <c r="D3">
-        <v>0.1583584901506896</v>
+        <v>0.1807582011935267</v>
       </c>
       <c r="E3">
-        <v>0.1590111233942295</v>
+        <v>0.1657741159388664</v>
       </c>
       <c r="F3">
-        <v>1.009722709210067</v>
+        <v>0.8786210879525669</v>
       </c>
       <c r="G3">
-        <v>0.6689455904141397</v>
+        <v>0.5314177494307017</v>
       </c>
       <c r="H3">
-        <v>0.0009752267436549111</v>
+        <v>0.0008518771876038223</v>
       </c>
       <c r="I3">
-        <v>0.0004771367250846481</v>
+        <v>0.0007420164747857783</v>
       </c>
       <c r="J3">
-        <v>0.4976895483155346</v>
+        <v>0.4580858958752145</v>
       </c>
       <c r="K3">
-        <v>0.582717117181744</v>
+        <v>0.4637549990193293</v>
       </c>
       <c r="L3">
-        <v>0.1975556888017778</v>
+        <v>0.2383180228829609</v>
       </c>
       <c r="M3">
-        <v>4.441272375092979</v>
+        <v>0.122099373459239</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1946119897434286</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>4.444667948396273</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,8 +539,14 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,43 +554,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02655020045146017</v>
+        <v>0.01118289666368355</v>
       </c>
       <c r="D4">
-        <v>0.1450564739991762</v>
+        <v>0.165111068874964</v>
       </c>
       <c r="E4">
-        <v>0.1458459407723787</v>
+        <v>0.1521671448653699</v>
       </c>
       <c r="F4">
-        <v>0.9724948418332815</v>
+        <v>0.8535952571874716</v>
       </c>
       <c r="G4">
-        <v>0.6465370020517582</v>
+        <v>0.5213651949681832</v>
       </c>
       <c r="H4">
-        <v>0.001831454047400927</v>
+        <v>0.001588507169483444</v>
       </c>
       <c r="I4">
-        <v>0.0004483238786132659</v>
+        <v>0.0005384947078082014</v>
       </c>
       <c r="J4">
-        <v>0.4912816844290404</v>
+        <v>0.4539722533035473</v>
       </c>
       <c r="K4">
-        <v>0.5626774172641689</v>
+        <v>0.4535870816838639</v>
       </c>
       <c r="L4">
-        <v>0.1813891301306896</v>
+        <v>0.2384081703382925</v>
       </c>
       <c r="M4">
-        <v>4.035893969101039</v>
+        <v>0.1152336900400073</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1792346521704147</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>4.040200943804166</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,8 +598,14 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,43 +613,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02510780996404804</v>
+        <v>0.01095277189658717</v>
       </c>
       <c r="D5">
-        <v>0.1398605122801229</v>
+        <v>0.1589630621763121</v>
       </c>
       <c r="E5">
-        <v>0.1405424477319777</v>
+        <v>0.1466800293307138</v>
       </c>
       <c r="F5">
-        <v>0.9562282402232327</v>
+        <v>0.842441265823922</v>
       </c>
       <c r="G5">
-        <v>0.6363805947361953</v>
+        <v>0.5164735130993421</v>
       </c>
       <c r="H5">
-        <v>0.002268593687550169</v>
+        <v>0.001963918879518189</v>
       </c>
       <c r="I5">
-        <v>0.0006023321211428012</v>
+        <v>0.0006050277434743734</v>
       </c>
       <c r="J5">
-        <v>0.4881651493177657</v>
+        <v>0.4517997055811804</v>
       </c>
       <c r="K5">
-        <v>0.5534591579223118</v>
+        <v>0.4485696378649138</v>
       </c>
       <c r="L5">
-        <v>0.1747555966865662</v>
+        <v>0.2379998466781608</v>
       </c>
       <c r="M5">
-        <v>3.870641789405681</v>
+        <v>0.112355259820891</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1729215958335999</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>3.875251059963887</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,8 +657,14 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,43 +672,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02458987432225257</v>
+        <v>0.01075621439586527</v>
       </c>
       <c r="D6">
-        <v>0.1392483522833459</v>
+        <v>0.1581872427170055</v>
       </c>
       <c r="E6">
-        <v>0.139725740153434</v>
+        <v>0.1458289960772881</v>
       </c>
       <c r="F6">
-        <v>0.9519674221596688</v>
+        <v>0.8392774089860495</v>
       </c>
       <c r="G6">
-        <v>0.6332308567525331</v>
+        <v>0.5144911769121876</v>
       </c>
       <c r="H6">
-        <v>0.002349248138014293</v>
+        <v>0.002032993970145447</v>
       </c>
       <c r="I6">
-        <v>0.0007233501237751128</v>
+        <v>0.0007249088940541881</v>
       </c>
       <c r="J6">
-        <v>0.4868969515140975</v>
+        <v>0.450803917632669</v>
       </c>
       <c r="K6">
-        <v>0.550553626902456</v>
+        <v>0.4466457834744375</v>
       </c>
       <c r="L6">
-        <v>0.1735954914287277</v>
+        <v>0.2374393537355672</v>
       </c>
       <c r="M6">
-        <v>3.843161254863446</v>
+        <v>0.1115560239193805</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1718203277840757</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>3.847820172629497</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,8 +716,14 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,43 +731,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02576425915647462</v>
+        <v>0.01086548604933313</v>
       </c>
       <c r="D7">
-        <v>0.1456687932921312</v>
+        <v>0.1661038890337352</v>
       </c>
       <c r="E7">
-        <v>0.1459480252523804</v>
+        <v>0.1523567831735804</v>
       </c>
       <c r="F7">
-        <v>0.9679808966640735</v>
+        <v>0.8476499973423017</v>
       </c>
       <c r="G7">
-        <v>0.6423691737254131</v>
+        <v>0.5203940959389541</v>
       </c>
       <c r="H7">
-        <v>0.001844123705186496</v>
+        <v>0.001602398961470741</v>
       </c>
       <c r="I7">
-        <v>0.0006766941909921442</v>
+        <v>0.0008045969153851473</v>
       </c>
       <c r="J7">
-        <v>0.4891705420328094</v>
+        <v>0.4466431782093991</v>
       </c>
       <c r="K7">
-        <v>0.5587785521286435</v>
+        <v>0.4492358598556265</v>
       </c>
       <c r="L7">
-        <v>0.1811389032248485</v>
+        <v>0.2365181538730177</v>
       </c>
       <c r="M7">
-        <v>4.03355703860376</v>
+        <v>0.113851575279682</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1789174574050207</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>4.037821489898079</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,8 +775,14 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,43 +790,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03165936475215148</v>
+        <v>0.01168682638111562</v>
       </c>
       <c r="D8">
-        <v>0.1735433849639918</v>
+        <v>0.1998347926228661</v>
       </c>
       <c r="E8">
-        <v>0.1733327177621788</v>
+        <v>0.1808891830066912</v>
       </c>
       <c r="F8">
-        <v>1.044452252701703</v>
+        <v>0.8938075674859931</v>
       </c>
       <c r="G8">
-        <v>0.688182265058515</v>
+        <v>0.5463175320219449</v>
       </c>
       <c r="H8">
-        <v>0.0003729525164137826</v>
+        <v>0.0003359242953113739</v>
       </c>
       <c r="I8">
-        <v>0.00112025649830727</v>
+        <v>0.001516775755871613</v>
       </c>
       <c r="J8">
-        <v>0.5022079295045643</v>
+        <v>0.4421559769897385</v>
       </c>
       <c r="K8">
-        <v>0.5993774762011697</v>
+        <v>0.4664980526488165</v>
       </c>
       <c r="L8">
-        <v>0.2146107344245678</v>
+        <v>0.2346860687021852</v>
       </c>
       <c r="M8">
-        <v>4.873720705330811</v>
+        <v>0.1273089007050672</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2105327458224266</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>4.875677567930097</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,8 +834,14 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,43 +849,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04467948605845606</v>
+        <v>0.01447814786525825</v>
       </c>
       <c r="D9">
-        <v>0.2278644866538855</v>
+        <v>0.2644374027006648</v>
       </c>
       <c r="E9">
-        <v>0.2272690721320103</v>
+        <v>0.2366770766890127</v>
       </c>
       <c r="F9">
-        <v>1.209536551314883</v>
+        <v>1.003642511691766</v>
       </c>
       <c r="G9">
-        <v>0.7923763548589022</v>
+        <v>0.6010983435517119</v>
       </c>
       <c r="H9">
-        <v>0.0005911522944161973</v>
+        <v>0.0004741710506459551</v>
       </c>
       <c r="I9">
-        <v>0.005297908310237354</v>
+        <v>0.005130899935620548</v>
       </c>
       <c r="J9">
-        <v>0.5357147017797246</v>
+        <v>0.4571590464044419</v>
       </c>
       <c r="K9">
-        <v>0.6889801241062088</v>
+        <v>0.5114518206520984</v>
       </c>
       <c r="L9">
-        <v>0.2809312592797539</v>
+        <v>0.23401344628601</v>
       </c>
       <c r="M9">
-        <v>6.524580320353039</v>
+        <v>0.1633920732408605</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2732412207789281</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>6.519125963123884</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,8 +893,14 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,43 +908,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.05501958615870706</v>
+        <v>0.01860746922045564</v>
       </c>
       <c r="D10">
-        <v>0.2638259163633592</v>
+        <v>0.3097209227172755</v>
       </c>
       <c r="E10">
-        <v>0.2577696242527878</v>
+        <v>0.2687446904690205</v>
       </c>
       <c r="F10">
-        <v>1.307533879441209</v>
+        <v>1.052601632836016</v>
       </c>
       <c r="G10">
-        <v>0.8533632135243749</v>
+        <v>0.644786972529289</v>
       </c>
       <c r="H10">
-        <v>0.003011450287452977</v>
+        <v>0.002487153646475893</v>
       </c>
       <c r="I10">
-        <v>0.01101152221275914</v>
+        <v>0.009675352667575687</v>
       </c>
       <c r="J10">
-        <v>0.5528162103950649</v>
+        <v>0.4313368298105047</v>
       </c>
       <c r="K10">
-        <v>0.7420151326338384</v>
+        <v>0.5276662850571441</v>
       </c>
       <c r="L10">
-        <v>0.31467461212101</v>
+        <v>0.2263982160812006</v>
       </c>
       <c r="M10">
-        <v>7.741795252443012</v>
+        <v>0.1869646115932539</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3039715048370368</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>7.728052670443674</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,8 +952,14 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,43 +967,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0679528719475968</v>
+        <v>0.03000229851846825</v>
       </c>
       <c r="D11">
-        <v>0.2387349823183911</v>
+        <v>0.2851772833988235</v>
       </c>
       <c r="E11">
-        <v>0.1939504479084704</v>
+        <v>0.2035851640496418</v>
       </c>
       <c r="F11">
-        <v>1.121806292504814</v>
+        <v>0.8740767038403163</v>
       </c>
       <c r="G11">
-        <v>0.7174147923238792</v>
+        <v>0.5643412980118825</v>
       </c>
       <c r="H11">
-        <v>0.02167645170189303</v>
+        <v>0.02105648386015346</v>
       </c>
       <c r="I11">
-        <v>0.01345013361452896</v>
+        <v>0.0116993622082644</v>
       </c>
       <c r="J11">
-        <v>0.4779619311103573</v>
+        <v>0.32428730343279</v>
       </c>
       <c r="K11">
-        <v>0.647472424544091</v>
+        <v>0.4439004824049206</v>
       </c>
       <c r="L11">
-        <v>0.2114544714416056</v>
+        <v>0.1912065682707293</v>
       </c>
       <c r="M11">
-        <v>8.287040158015145</v>
+        <v>0.1610637475914416</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2018485270297035</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>8.269890174171621</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,8 +1011,14 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,43 +1026,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07901420372174073</v>
+        <v>0.04090373073436382</v>
       </c>
       <c r="D12">
-        <v>0.2102747606114264</v>
+        <v>0.2535402775618536</v>
       </c>
       <c r="E12">
-        <v>0.1425116236092059</v>
+        <v>0.1502811800213735</v>
       </c>
       <c r="F12">
-        <v>0.9619191361158386</v>
+        <v>0.7374600532391042</v>
       </c>
       <c r="G12">
-        <v>0.6045028124082137</v>
+        <v>0.4875555076176141</v>
       </c>
       <c r="H12">
-        <v>0.06006576876908554</v>
+        <v>0.05946603101939019</v>
       </c>
       <c r="I12">
-        <v>0.01384648566989455</v>
+        <v>0.01198690732051855</v>
       </c>
       <c r="J12">
-        <v>0.4182577600900999</v>
+        <v>0.2698477989090478</v>
       </c>
       <c r="K12">
-        <v>0.5669792226509429</v>
+        <v>0.383085515201671</v>
       </c>
       <c r="L12">
-        <v>0.1383535073751787</v>
+        <v>0.1683745731357682</v>
       </c>
       <c r="M12">
-        <v>8.489904071494607</v>
+        <v>0.1388425653826424</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1306020136401074</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>8.472039300125402</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,8 +1070,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,43 +1085,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08785307603052672</v>
+        <v>0.05044368517563669</v>
       </c>
       <c r="D13">
-        <v>0.1788530151688548</v>
+        <v>0.2153588947704179</v>
       </c>
       <c r="E13">
-        <v>0.09818823205709037</v>
+        <v>0.1036252051830999</v>
       </c>
       <c r="F13">
-        <v>0.8062505794359254</v>
+        <v>0.6211476852295021</v>
       </c>
       <c r="G13">
-        <v>0.4963994193334003</v>
+        <v>0.4007759289131911</v>
       </c>
       <c r="H13">
-        <v>0.1152135188769279</v>
+        <v>0.1147281069083022</v>
       </c>
       <c r="I13">
-        <v>0.01289021542444235</v>
+        <v>0.01127755996310942</v>
       </c>
       <c r="J13">
-        <v>0.3634196812555075</v>
+        <v>0.2466696076781147</v>
       </c>
       <c r="K13">
-        <v>0.4867378847393837</v>
+        <v>0.3328393764809761</v>
       </c>
       <c r="L13">
-        <v>0.0842521790919335</v>
+        <v>0.1516120671188759</v>
       </c>
       <c r="M13">
-        <v>8.438457173716245</v>
+        <v>0.117432739673383</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07887722469003933</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>8.422234592378686</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,8 +1129,14 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,43 +1144,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0927716619583947</v>
+        <v>0.05629046051078745</v>
       </c>
       <c r="D14">
-        <v>0.1561058499543293</v>
+        <v>0.186667236153113</v>
       </c>
       <c r="E14">
-        <v>0.07192947654458592</v>
+        <v>0.07570514020107666</v>
       </c>
       <c r="F14">
-        <v>0.7007413294708655</v>
+        <v>0.5482408622159554</v>
       </c>
       <c r="G14">
-        <v>0.423850572178111</v>
+        <v>0.3381240386375168</v>
       </c>
       <c r="H14">
-        <v>0.1640562179926945</v>
+        <v>0.1636778577414333</v>
       </c>
       <c r="I14">
-        <v>0.0117341915391842</v>
+        <v>0.01044815278978106</v>
       </c>
       <c r="J14">
-        <v>0.3276204221290726</v>
+        <v>0.2405024821315607</v>
       </c>
       <c r="K14">
-        <v>0.4309331671072982</v>
+        <v>0.3015314924815016</v>
       </c>
       <c r="L14">
-        <v>0.05806115572009318</v>
+        <v>0.1420219537075553</v>
       </c>
       <c r="M14">
-        <v>8.287349996206842</v>
+        <v>0.1027418492935084</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05437720154327685</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>8.273246071427195</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,8 +1188,14 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,43 +1203,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.09289851659227111</v>
+        <v>0.05682981936500653</v>
       </c>
       <c r="D15">
-        <v>0.1500130430221134</v>
+        <v>0.1785677021453864</v>
       </c>
       <c r="E15">
-        <v>0.06596277731373235</v>
+        <v>0.06930387671839355</v>
       </c>
       <c r="F15">
-        <v>0.6736236920307377</v>
+        <v>0.5317332353448734</v>
       </c>
       <c r="G15">
-        <v>0.4052130932648623</v>
+        <v>0.3205011076621886</v>
       </c>
       <c r="H15">
-        <v>0.1763575451124098</v>
+        <v>0.1760232337755667</v>
       </c>
       <c r="I15">
-        <v>0.01127492961517973</v>
+        <v>0.01015835195153958</v>
       </c>
       <c r="J15">
-        <v>0.3189542662205298</v>
+        <v>0.2425774271141208</v>
       </c>
       <c r="K15">
-        <v>0.4158585853790484</v>
+        <v>0.2943995782505908</v>
       </c>
       <c r="L15">
-        <v>0.05306830408012608</v>
+        <v>0.140207787463325</v>
       </c>
       <c r="M15">
-        <v>8.196283294389048</v>
+        <v>0.09879151798622843</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04984682967628373</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>8.183163995045049</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,8 +1247,14 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,43 +1262,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08559918875229755</v>
+        <v>0.05037293175308122</v>
       </c>
       <c r="D16">
-        <v>0.1422048126144375</v>
+        <v>0.1656517455535891</v>
       </c>
       <c r="E16">
-        <v>0.063478006083173</v>
+        <v>0.06639112136435443</v>
       </c>
       <c r="F16">
-        <v>0.6635457736715438</v>
+        <v>0.545082666561342</v>
       </c>
       <c r="G16">
-        <v>0.4000356984477094</v>
+        <v>0.3034903135817757</v>
       </c>
       <c r="H16">
-        <v>0.1627301860828112</v>
+        <v>0.1625639189329462</v>
       </c>
       <c r="I16">
-        <v>0.008900895007536214</v>
+        <v>0.008400920089086661</v>
       </c>
       <c r="J16">
-        <v>0.3219452929584605</v>
+        <v>0.2788244665332869</v>
       </c>
       <c r="K16">
-        <v>0.4084648954349106</v>
+        <v>0.3033165359724883</v>
       </c>
       <c r="L16">
-        <v>0.05161597867031986</v>
+        <v>0.1468956805732233</v>
       </c>
       <c r="M16">
-        <v>7.680352020168243</v>
+        <v>0.09681875225967218</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04909807523652709</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>7.671431229221071</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,8 +1306,14 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,43 +1321,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07740785614089418</v>
+        <v>0.04282179692414445</v>
       </c>
       <c r="D17">
-        <v>0.1480454291095583</v>
+        <v>0.1709071025075701</v>
       </c>
       <c r="E17">
-        <v>0.07443626386099922</v>
+        <v>0.07779453298642736</v>
       </c>
       <c r="F17">
-        <v>0.710251360801287</v>
+        <v>0.5924359308583078</v>
       </c>
       <c r="G17">
-        <v>0.4334937011448119</v>
+        <v>0.3239835117266665</v>
       </c>
       <c r="H17">
-        <v>0.1245630821245385</v>
+        <v>0.1244597384727797</v>
       </c>
       <c r="I17">
-        <v>0.007773273180889717</v>
+        <v>0.007547226703358945</v>
       </c>
       <c r="J17">
-        <v>0.3427968773064549</v>
+        <v>0.3104606744076364</v>
       </c>
       <c r="K17">
-        <v>0.4316711171769327</v>
+        <v>0.3259106078955121</v>
       </c>
       <c r="L17">
-        <v>0.06216769345160955</v>
+        <v>0.1572604696797022</v>
       </c>
       <c r="M17">
-        <v>7.366076962691409</v>
+        <v>0.1024076795092306</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0594614263845763</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>7.359068408942107</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,8 +1365,14 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,43 +1380,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06875453988622837</v>
+        <v>0.03421361632781839</v>
       </c>
       <c r="D18">
-        <v>0.1666537484973531</v>
+        <v>0.1920541934636901</v>
       </c>
       <c r="E18">
-        <v>0.1027626464971085</v>
+        <v>0.1073205303375069</v>
       </c>
       <c r="F18">
-        <v>0.8196555560446512</v>
+        <v>0.6850879919854123</v>
       </c>
       <c r="G18">
-        <v>0.5108641567684487</v>
+        <v>0.3797535640493095</v>
       </c>
       <c r="H18">
-        <v>0.07168915721722158</v>
+        <v>0.07159393014428872</v>
       </c>
       <c r="I18">
-        <v>0.007202374659376787</v>
+        <v>0.007002932539400319</v>
       </c>
       <c r="J18">
-        <v>0.3847125226310766</v>
+        <v>0.3494571232176042</v>
       </c>
       <c r="K18">
-        <v>0.488778838054337</v>
+        <v>0.3686462579504237</v>
       </c>
       <c r="L18">
-        <v>0.09465423009539009</v>
+        <v>0.1742268446604029</v>
       </c>
       <c r="M18">
-        <v>7.188324456111388</v>
+        <v>0.1171167707069465</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0909658948424088</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>7.181811424418697</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,8 +1424,14 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,43 +1439,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05905886407059313</v>
+        <v>0.02496024986551504</v>
       </c>
       <c r="D19">
-        <v>0.1967240814872326</v>
+        <v>0.2269734186246666</v>
       </c>
       <c r="E19">
-        <v>0.1504107877751757</v>
+        <v>0.1568017153247361</v>
       </c>
       <c r="F19">
-        <v>0.9753824800811373</v>
+        <v>0.8116882165270596</v>
       </c>
       <c r="G19">
-        <v>0.6198210660579946</v>
+        <v>0.4597422475719526</v>
       </c>
       <c r="H19">
-        <v>0.02674046366379912</v>
+        <v>0.02660546197342484</v>
       </c>
       <c r="I19">
-        <v>0.00757237672153277</v>
+        <v>0.007329814635574472</v>
       </c>
       <c r="J19">
-        <v>0.4411425104947142</v>
+        <v>0.3941386164625413</v>
       </c>
       <c r="K19">
-        <v>0.5677505272552281</v>
+        <v>0.4239155191010084</v>
       </c>
       <c r="L19">
-        <v>0.1580622226129833</v>
+        <v>0.1950076500758655</v>
       </c>
       <c r="M19">
-        <v>7.132481042994584</v>
+        <v>0.1378818039257652</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.152665524368814</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>7.12538987078608</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,8 +1483,14 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,43 +1498,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04982250939397659</v>
+        <v>0.01578480960792206</v>
       </c>
       <c r="D20">
-        <v>0.2562997774816012</v>
+        <v>0.298143266613863</v>
       </c>
       <c r="E20">
-        <v>0.2498650072807465</v>
+        <v>0.2600192426831498</v>
       </c>
       <c r="F20">
-        <v>1.266887698538326</v>
+        <v>1.035373745482843</v>
       </c>
       <c r="G20">
-        <v>0.823604476552191</v>
+        <v>0.6139136410284607</v>
       </c>
       <c r="H20">
-        <v>0.002175835730131581</v>
+        <v>0.001801342702750564</v>
       </c>
       <c r="I20">
-        <v>0.009915081520841085</v>
+        <v>0.009152775828258797</v>
       </c>
       <c r="J20">
-        <v>0.5413245044185828</v>
+        <v>0.4512179066130102</v>
       </c>
       <c r="K20">
-        <v>0.7155250272427551</v>
+        <v>0.5185494104782506</v>
       </c>
       <c r="L20">
-        <v>0.304620715514119</v>
+        <v>0.2266476082373572</v>
       </c>
       <c r="M20">
-        <v>7.421049843682795</v>
+        <v>0.1786699024097942</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2951124369619293</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>7.410105317931254</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,8 +1542,14 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,43 +1557,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05679371137892986</v>
+        <v>0.02046095497375688</v>
       </c>
       <c r="D21">
-        <v>0.2915355492516056</v>
+        <v>0.3503683197605483</v>
       </c>
       <c r="E21">
-        <v>0.288499009646948</v>
+        <v>0.3024093409091932</v>
       </c>
       <c r="F21">
-        <v>1.388826552136962</v>
+        <v>1.069521757406363</v>
       </c>
       <c r="G21">
-        <v>0.9047699581684441</v>
+        <v>0.7210201556247853</v>
       </c>
       <c r="H21">
-        <v>0.004836062007312014</v>
+        <v>0.003905784231757026</v>
       </c>
       <c r="I21">
-        <v>0.01531856948268207</v>
+        <v>0.01312755028976742</v>
       </c>
       <c r="J21">
-        <v>0.5718831632501065</v>
+        <v>0.3557559306200631</v>
       </c>
       <c r="K21">
-        <v>0.7806589549455936</v>
+        <v>0.5241290037359008</v>
       </c>
       <c r="L21">
-        <v>0.3546915208888493</v>
+        <v>0.2184618284219084</v>
       </c>
       <c r="M21">
-        <v>8.359766574493392</v>
+        <v>0.1948122851832039</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3405142979605671</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>8.339481849513561</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,8 +1601,14 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,43 +1616,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06296607658092057</v>
+        <v>0.02504009752234992</v>
       </c>
       <c r="D22">
-        <v>0.3112817063128688</v>
+        <v>0.3817940172954053</v>
       </c>
       <c r="E22">
-        <v>0.3087206107439471</v>
+        <v>0.3251530734466073</v>
       </c>
       <c r="F22">
-        <v>1.461972343753743</v>
+        <v>1.082998858009702</v>
       </c>
       <c r="G22">
-        <v>0.9548326967042584</v>
+        <v>0.79622437436403</v>
       </c>
       <c r="H22">
-        <v>0.007118687211294161</v>
+        <v>0.005714861038823793</v>
       </c>
       <c r="I22">
-        <v>0.01920943601974123</v>
+        <v>0.01579231980981177</v>
       </c>
       <c r="J22">
-        <v>0.5903972315363717</v>
+        <v>0.2969888987481966</v>
       </c>
       <c r="K22">
-        <v>0.8220529799039511</v>
+        <v>0.5252010482856377</v>
       </c>
       <c r="L22">
-        <v>0.3799916484822461</v>
+        <v>0.2122887323004967</v>
       </c>
       <c r="M22">
-        <v>8.97528990737203</v>
+        <v>0.204739069307621</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.362697461001062</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>8.948063812882083</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,8 +1660,14 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,43 +1675,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.06061091082447234</v>
+        <v>0.02273261806796967</v>
       </c>
       <c r="D23">
-        <v>0.2998890513622428</v>
+        <v>0.3629302875302045</v>
       </c>
       <c r="E23">
-        <v>0.2976998487811784</v>
+        <v>0.31249633581956</v>
       </c>
       <c r="F23">
-        <v>1.427886676673651</v>
+        <v>1.085334496592552</v>
       </c>
       <c r="G23">
-        <v>0.9327530641984083</v>
+        <v>0.7526210481710081</v>
       </c>
       <c r="H23">
-        <v>0.005861869194328517</v>
+        <v>0.004728299354110788</v>
       </c>
       <c r="I23">
-        <v>0.01684988596366388</v>
+        <v>0.01405523149624521</v>
       </c>
       <c r="J23">
-        <v>0.5828639444755623</v>
+        <v>0.3389249192719461</v>
       </c>
       <c r="K23">
-        <v>0.8043938131070618</v>
+        <v>0.5310730848030403</v>
       </c>
       <c r="L23">
-        <v>0.3666710447933781</v>
+        <v>0.2177829152016315</v>
       </c>
       <c r="M23">
-        <v>8.646780851536903</v>
+        <v>0.2020594103447095</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3512573444600946</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>8.623491444591366</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,8 +1719,14 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,43 +1734,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05035916367297233</v>
+        <v>0.01581262323310639</v>
       </c>
       <c r="D24">
-        <v>0.2584494154733221</v>
+        <v>0.3008101262882406</v>
       </c>
       <c r="E24">
-        <v>0.2566452153211074</v>
+        <v>0.2670372303690982</v>
       </c>
       <c r="F24">
-        <v>1.293972040574161</v>
+        <v>1.057739962416875</v>
       </c>
       <c r="G24">
-        <v>0.8446719698673206</v>
+        <v>0.6295546619962948</v>
       </c>
       <c r="H24">
-        <v>0.002149919153461299</v>
+        <v>0.001763450509783659</v>
       </c>
       <c r="I24">
-        <v>0.009540789988044196</v>
+        <v>0.008663245266412822</v>
       </c>
       <c r="J24">
-        <v>0.5521460872804766</v>
+        <v>0.4603591698579379</v>
       </c>
       <c r="K24">
-        <v>0.7319984620045119</v>
+        <v>0.5306453763901331</v>
       </c>
       <c r="L24">
-        <v>0.3162963927167937</v>
+        <v>0.2311968267484659</v>
       </c>
       <c r="M24">
-        <v>7.406973261282587</v>
+        <v>0.1832118336749531</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3065311081860784</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>7.395937715962532</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,8 +1778,14 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03971196707879443</v>
+        <v>0.01269664589315056</v>
       </c>
       <c r="D25">
-        <v>0.2143117026968895</v>
+        <v>0.247455460042886</v>
       </c>
       <c r="E25">
-        <v>0.2129165952430014</v>
+        <v>0.2216671956693261</v>
       </c>
       <c r="F25">
-        <v>1.15616221112613</v>
+        <v>0.9700148303161882</v>
       </c>
       <c r="G25">
-        <v>0.7559945436039897</v>
+        <v>0.5763400268504029</v>
       </c>
       <c r="H25">
-        <v>0.0001604388983786897</v>
+        <v>0.0001241715319579839</v>
       </c>
       <c r="I25">
-        <v>0.004080458026045619</v>
+        <v>0.0042861364010367</v>
       </c>
       <c r="J25">
-        <v>0.52241768543918</v>
+        <v>0.457693995704517</v>
       </c>
       <c r="K25">
-        <v>0.6574613958813558</v>
+        <v>0.4957143676530009</v>
       </c>
       <c r="L25">
-        <v>0.2626201445736172</v>
+        <v>0.2330139129679694</v>
       </c>
       <c r="M25">
-        <v>6.076998891510414</v>
+        <v>0.1516510494150012</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2561018621061635</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>6.074098995494523</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
